--- a/_book/src/main/leetcode_manuscripts/draw_io/leetcode_graph.xlsx
+++ b/_book/src/main/leetcode_manuscripts/draw_io/leetcode_graph.xlsx
@@ -4,19 +4,28 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16680" windowHeight="16960" activeTab="2"/>
+    <workbookView windowWidth="17620" windowHeight="16300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="dp" sheetId="2" r:id="rId2"/>
+    <sheet name="graph" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
+  <si>
+    <t>grid</t>
+  </si>
+  <si>
+    <t>dp</t>
+  </si>
+  <si>
+    <t>sum</t>
+  </si>
   <si>
     <t>cur=3</t>
   </si>
@@ -73,10 +82,10 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <name val="宋体"/>
@@ -99,17 +108,15 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="14"/>
+      <name val="STHeiti Light"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -128,8 +135,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -142,11 +158,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -165,11 +180,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -181,8 +203,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,15 +220,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,17 +236,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -243,10 +257,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -307,43 +321,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -355,13 +411,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -373,97 +477,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,8 +532,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,8 +556,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,36 +604,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -608,136 +622,136 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -746,14 +760,14 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -795,6 +809,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
@@ -1130,22 +1150,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="14"/>
+      <c r="A1" s="16"/>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="14"/>
+      <c r="A8" s="16"/>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="14"/>
+      <c r="A13" s="16"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="14"/>
+      <c r="A17" s="16"/>
     </row>
     <row r="61" spans="1:1">
-      <c r="A61" s="14"/>
+      <c r="A61" s="16"/>
     </row>
     <row r="117" spans="1:1">
-      <c r="A117" s="14"/>
+      <c r="A117" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1156,17 +1176,226 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="B6:L14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.8"/>
   <cols>
-    <col min="1" max="256" width="11" customWidth="1"/>
+    <col min="1" max="3" width="11" style="14" customWidth="1"/>
+    <col min="4" max="4" width="10.4230769230769" style="14" customWidth="1"/>
+    <col min="5" max="256" width="11" style="14" customWidth="1"/>
+    <col min="257" max="16384" width="10" style="14"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="6" spans="2:12">
+      <c r="B6" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="14">
+        <v>20</v>
+      </c>
+      <c r="D6" s="14">
+        <v>3</v>
+      </c>
+      <c r="E6" s="14">
+        <v>20</v>
+      </c>
+      <c r="F6" s="14">
+        <v>17</v>
+      </c>
+      <c r="G6" s="14">
+        <v>2</v>
+      </c>
+      <c r="H6" s="14">
+        <v>12</v>
+      </c>
+      <c r="I6" s="14">
+        <v>15</v>
+      </c>
+      <c r="J6" s="14">
+        <v>17</v>
+      </c>
+      <c r="K6" s="14">
+        <v>4</v>
+      </c>
+      <c r="L6" s="14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="3:12">
+      <c r="C7" s="14">
+        <v>20</v>
+      </c>
+      <c r="D7" s="14">
+        <v>10</v>
+      </c>
+      <c r="E7" s="14">
+        <v>13</v>
+      </c>
+      <c r="F7" s="14">
+        <v>14</v>
+      </c>
+      <c r="G7" s="14">
+        <v>15</v>
+      </c>
+      <c r="H7" s="14">
+        <v>5</v>
+      </c>
+      <c r="I7" s="14">
+        <v>2</v>
+      </c>
+      <c r="J7" s="14">
+        <v>3</v>
+      </c>
+      <c r="K7" s="14">
+        <v>14</v>
+      </c>
+      <c r="L7" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="B9" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="14">
+        <v>20</v>
+      </c>
+      <c r="D9" s="14">
+        <v>23</v>
+      </c>
+      <c r="E9" s="14">
+        <v>43</v>
+      </c>
+      <c r="F9" s="14">
+        <v>60</v>
+      </c>
+      <c r="G9" s="14">
+        <v>62</v>
+      </c>
+      <c r="H9" s="14">
+        <v>74</v>
+      </c>
+      <c r="I9" s="14">
+        <v>89</v>
+      </c>
+      <c r="J9" s="14">
+        <v>106</v>
+      </c>
+      <c r="K9" s="14">
+        <v>110</v>
+      </c>
+      <c r="L9" s="14">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="3:12">
+      <c r="C10" s="14">
+        <v>40</v>
+      </c>
+      <c r="D10" s="14">
+        <v>50</v>
+      </c>
+      <c r="E10" s="14">
+        <v>63</v>
+      </c>
+      <c r="F10" s="14">
+        <v>77</v>
+      </c>
+      <c r="G10" s="14">
+        <v>92</v>
+      </c>
+      <c r="H10" s="14">
+        <v>97</v>
+      </c>
+      <c r="I10" s="14">
+        <v>99</v>
+      </c>
+      <c r="J10" s="14">
+        <v>109</v>
+      </c>
+      <c r="K10" s="14">
+        <v>124</v>
+      </c>
+      <c r="L10" s="14">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12">
+      <c r="B13" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="14">
+        <v>0</v>
+      </c>
+      <c r="D13" s="14">
+        <v>0</v>
+      </c>
+      <c r="E13" s="14">
+        <v>0</v>
+      </c>
+      <c r="F13" s="14">
+        <v>0</v>
+      </c>
+      <c r="G13" s="14">
+        <v>0</v>
+      </c>
+      <c r="H13" s="14">
+        <v>0</v>
+      </c>
+      <c r="I13" s="14">
+        <v>0</v>
+      </c>
+      <c r="J13" s="14">
+        <v>0</v>
+      </c>
+      <c r="K13" s="14">
+        <v>0</v>
+      </c>
+      <c r="L13" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12">
+      <c r="B14" s="15">
+        <f>SUM(C14:K14)</f>
+        <v>96</v>
+      </c>
+      <c r="C14" s="14">
+        <v>20</v>
+      </c>
+      <c r="D14" s="14">
+        <v>10</v>
+      </c>
+      <c r="E14" s="14">
+        <v>13</v>
+      </c>
+      <c r="F14" s="14">
+        <v>14</v>
+      </c>
+      <c r="G14" s="14">
+        <v>15</v>
+      </c>
+      <c r="H14" s="14">
+        <v>5</v>
+      </c>
+      <c r="I14" s="14">
+        <v>2</v>
+      </c>
+      <c r="J14" s="14">
+        <v>3</v>
+      </c>
+      <c r="K14" s="14">
+        <v>14</v>
+      </c>
+      <c r="L14" s="14">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
@@ -1177,8 +1406,8 @@
   <sheetPr/>
   <dimension ref="B3:N78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="C71" sqref="C70:C71"/>
+    <sheetView topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="R70" sqref="R70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.73076923076923" defaultRowHeight="35" customHeight="1"/>
@@ -1276,7 +1505,7 @@
       </c>
       <c r="C10" s="3"/>
       <c r="F10" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J10" s="6"/>
     </row>
@@ -1359,7 +1588,7 @@
       </c>
       <c r="C17" s="3"/>
       <c r="I17" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J17" s="6"/>
     </row>
@@ -1436,7 +1665,7 @@
       <c r="B23" s="2"/>
       <c r="C23" s="3"/>
       <c r="J23" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="2:10">
@@ -1526,7 +1755,7 @@
       <c r="C31" s="3"/>
       <c r="J31" s="6"/>
       <c r="M31" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="2:13">
@@ -1600,14 +1829,14 @@
     </row>
     <row r="37" customHeight="1" spans="8:8">
       <c r="H37" s="10" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="2:13">
       <c r="B38" s="2"/>
       <c r="C38" s="3"/>
       <c r="M38" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="2:13">
@@ -1616,11 +1845,11 @@
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J39" s="6"/>
       <c r="M39" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="2:13">
@@ -1629,7 +1858,7 @@
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F40" s="6"/>
       <c r="G40" s="7"/>
@@ -1698,14 +1927,14 @@
     </row>
     <row r="43" customHeight="1" spans="8:8">
       <c r="H43" s="10" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="2:13">
       <c r="B44" s="2"/>
       <c r="C44" s="3"/>
       <c r="M44" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="2:13">
@@ -1714,11 +1943,11 @@
       </c>
       <c r="C45" s="3"/>
       <c r="G45" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J45" s="6"/>
       <c r="M45" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="2:13">
@@ -1793,14 +2022,14 @@
     </row>
     <row r="49" customHeight="1" spans="8:8">
       <c r="H49" s="10" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="2:13">
       <c r="B50" s="2"/>
       <c r="C50" s="3"/>
       <c r="M50" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="2:13">
@@ -1809,14 +2038,14 @@
       </c>
       <c r="C51" s="3"/>
       <c r="F51" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J51" s="6"/>
       <c r="M51" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="2:13">
@@ -1891,14 +2120,14 @@
     </row>
     <row r="55" customHeight="1" spans="8:8">
       <c r="H55" s="10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="2:13">
       <c r="B56" s="2"/>
       <c r="C56" s="3"/>
       <c r="M56" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="2:13">
@@ -1907,14 +2136,14 @@
       </c>
       <c r="C57" s="3"/>
       <c r="F57" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J57" s="6"/>
       <c r="M57" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="2:13">
@@ -1989,20 +2218,20 @@
     </row>
     <row r="61" customHeight="1" spans="8:10">
       <c r="H61" s="10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="2:13">
       <c r="B62" s="2"/>
       <c r="C62" s="3"/>
       <c r="J62" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M62" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="M62" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="2:13">
@@ -2012,7 +2241,7 @@
       <c r="C63" s="3"/>
       <c r="J63" s="6"/>
       <c r="M63" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="2:13">
@@ -2087,20 +2316,20 @@
     </row>
     <row r="67" customHeight="1" spans="8:10">
       <c r="H67" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" customHeight="1" spans="2:13">
       <c r="B68" s="2"/>
       <c r="C68" s="3"/>
       <c r="J68" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M68" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="M68" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="69" customHeight="1" spans="2:12">
@@ -2111,7 +2340,7 @@
       <c r="J69" s="6"/>
       <c r="K69" s="13"/>
       <c r="L69" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70" customHeight="1" spans="2:13">
@@ -2186,20 +2415,20 @@
     </row>
     <row r="73" customHeight="1" spans="8:10">
       <c r="H73" s="10" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74" customHeight="1" spans="2:11">
       <c r="B74" s="2"/>
       <c r="C74" s="3"/>
       <c r="J74" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75" customHeight="1" spans="2:12">

--- a/_book/src/main/leetcode_manuscripts/draw_io/leetcode_graph.xlsx
+++ b/_book/src/main/leetcode_manuscripts/draw_io/leetcode_graph.xlsx
@@ -4,28 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17620" windowHeight="16300" activeTab="1"/>
+    <workbookView windowWidth="16680" windowHeight="16960" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="dp" sheetId="2" r:id="rId2"/>
-    <sheet name="graph" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
-  <si>
-    <t>grid</t>
-  </si>
-  <si>
-    <t>dp</t>
-  </si>
-  <si>
-    <t>sum</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
   <si>
     <t>cur=3</t>
   </si>
@@ -82,10 +73,10 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <name val="宋体"/>
@@ -108,15 +99,17 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="14"/>
-      <name val="STHeiti Light"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -135,6 +128,105 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -143,92 +235,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,28 +249,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -321,163 +307,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,23 +518,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,23 +527,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -604,6 +560,36 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -622,136 +608,136 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -760,14 +746,14 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -809,12 +795,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
@@ -1150,22 +1130,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="16"/>
+      <c r="A1" s="14"/>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="16"/>
+      <c r="A8" s="14"/>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="16"/>
+      <c r="A13" s="14"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="16"/>
+      <c r="A17" s="14"/>
     </row>
     <row r="61" spans="1:1">
-      <c r="A61" s="16"/>
+      <c r="A61" s="14"/>
     </row>
     <row r="117" spans="1:1">
-      <c r="A117" s="16"/>
+      <c r="A117" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1176,226 +1156,17 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B6:L14"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.8"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="3" width="11" style="14" customWidth="1"/>
-    <col min="4" max="4" width="10.4230769230769" style="14" customWidth="1"/>
-    <col min="5" max="256" width="11" style="14" customWidth="1"/>
-    <col min="257" max="16384" width="10" style="14"/>
+    <col min="1" max="256" width="11" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="6" spans="2:12">
-      <c r="B6" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="14">
-        <v>20</v>
-      </c>
-      <c r="D6" s="14">
-        <v>3</v>
-      </c>
-      <c r="E6" s="14">
-        <v>20</v>
-      </c>
-      <c r="F6" s="14">
-        <v>17</v>
-      </c>
-      <c r="G6" s="14">
-        <v>2</v>
-      </c>
-      <c r="H6" s="14">
-        <v>12</v>
-      </c>
-      <c r="I6" s="14">
-        <v>15</v>
-      </c>
-      <c r="J6" s="14">
-        <v>17</v>
-      </c>
-      <c r="K6" s="14">
-        <v>4</v>
-      </c>
-      <c r="L6" s="14">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="3:12">
-      <c r="C7" s="14">
-        <v>20</v>
-      </c>
-      <c r="D7" s="14">
-        <v>10</v>
-      </c>
-      <c r="E7" s="14">
-        <v>13</v>
-      </c>
-      <c r="F7" s="14">
-        <v>14</v>
-      </c>
-      <c r="G7" s="14">
-        <v>15</v>
-      </c>
-      <c r="H7" s="14">
-        <v>5</v>
-      </c>
-      <c r="I7" s="14">
-        <v>2</v>
-      </c>
-      <c r="J7" s="14">
-        <v>3</v>
-      </c>
-      <c r="K7" s="14">
-        <v>14</v>
-      </c>
-      <c r="L7" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12">
-      <c r="B9" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="14">
-        <v>20</v>
-      </c>
-      <c r="D9" s="14">
-        <v>23</v>
-      </c>
-      <c r="E9" s="14">
-        <v>43</v>
-      </c>
-      <c r="F9" s="14">
-        <v>60</v>
-      </c>
-      <c r="G9" s="14">
-        <v>62</v>
-      </c>
-      <c r="H9" s="14">
-        <v>74</v>
-      </c>
-      <c r="I9" s="14">
-        <v>89</v>
-      </c>
-      <c r="J9" s="14">
-        <v>106</v>
-      </c>
-      <c r="K9" s="14">
-        <v>110</v>
-      </c>
-      <c r="L9" s="14">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="10" spans="3:12">
-      <c r="C10" s="14">
-        <v>40</v>
-      </c>
-      <c r="D10" s="14">
-        <v>50</v>
-      </c>
-      <c r="E10" s="14">
-        <v>63</v>
-      </c>
-      <c r="F10" s="14">
-        <v>77</v>
-      </c>
-      <c r="G10" s="14">
-        <v>92</v>
-      </c>
-      <c r="H10" s="14">
-        <v>97</v>
-      </c>
-      <c r="I10" s="14">
-        <v>99</v>
-      </c>
-      <c r="J10" s="14">
-        <v>109</v>
-      </c>
-      <c r="K10" s="14">
-        <v>124</v>
-      </c>
-      <c r="L10" s="14">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12">
-      <c r="B13" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="14">
-        <v>0</v>
-      </c>
-      <c r="D13" s="14">
-        <v>0</v>
-      </c>
-      <c r="E13" s="14">
-        <v>0</v>
-      </c>
-      <c r="F13" s="14">
-        <v>0</v>
-      </c>
-      <c r="G13" s="14">
-        <v>0</v>
-      </c>
-      <c r="H13" s="14">
-        <v>0</v>
-      </c>
-      <c r="I13" s="14">
-        <v>0</v>
-      </c>
-      <c r="J13" s="14">
-        <v>0</v>
-      </c>
-      <c r="K13" s="14">
-        <v>0</v>
-      </c>
-      <c r="L13" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12">
-      <c r="B14" s="15">
-        <f>SUM(C14:K14)</f>
-        <v>96</v>
-      </c>
-      <c r="C14" s="14">
-        <v>20</v>
-      </c>
-      <c r="D14" s="14">
-        <v>10</v>
-      </c>
-      <c r="E14" s="14">
-        <v>13</v>
-      </c>
-      <c r="F14" s="14">
-        <v>14</v>
-      </c>
-      <c r="G14" s="14">
-        <v>15</v>
-      </c>
-      <c r="H14" s="14">
-        <v>5</v>
-      </c>
-      <c r="I14" s="14">
-        <v>2</v>
-      </c>
-      <c r="J14" s="14">
-        <v>3</v>
-      </c>
-      <c r="K14" s="14">
-        <v>14</v>
-      </c>
-      <c r="L14" s="14">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
@@ -1406,8 +1177,8 @@
   <sheetPr/>
   <dimension ref="B3:N78"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="R70" sqref="R70"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="C71" sqref="C70:C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.73076923076923" defaultRowHeight="35" customHeight="1"/>
@@ -1505,7 +1276,7 @@
       </c>
       <c r="C10" s="3"/>
       <c r="F10" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J10" s="6"/>
     </row>
@@ -1588,7 +1359,7 @@
       </c>
       <c r="C17" s="3"/>
       <c r="I17" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J17" s="6"/>
     </row>
@@ -1665,7 +1436,7 @@
       <c r="B23" s="2"/>
       <c r="C23" s="3"/>
       <c r="J23" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="2:10">
@@ -1755,7 +1526,7 @@
       <c r="C31" s="3"/>
       <c r="J31" s="6"/>
       <c r="M31" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="2:13">
@@ -1829,14 +1600,14 @@
     </row>
     <row r="37" customHeight="1" spans="8:8">
       <c r="H37" s="10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="2:13">
       <c r="B38" s="2"/>
       <c r="C38" s="3"/>
       <c r="M38" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="2:13">
@@ -1845,11 +1616,11 @@
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J39" s="6"/>
       <c r="M39" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="2:13">
@@ -1858,7 +1629,7 @@
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F40" s="6"/>
       <c r="G40" s="7"/>
@@ -1927,14 +1698,14 @@
     </row>
     <row r="43" customHeight="1" spans="8:8">
       <c r="H43" s="10" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="2:13">
       <c r="B44" s="2"/>
       <c r="C44" s="3"/>
       <c r="M44" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="2:13">
@@ -1943,11 +1714,11 @@
       </c>
       <c r="C45" s="3"/>
       <c r="G45" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J45" s="6"/>
       <c r="M45" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="2:13">
@@ -2022,14 +1793,14 @@
     </row>
     <row r="49" customHeight="1" spans="8:8">
       <c r="H49" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="2:13">
       <c r="B50" s="2"/>
       <c r="C50" s="3"/>
       <c r="M50" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="2:13">
@@ -2038,14 +1809,14 @@
       </c>
       <c r="C51" s="3"/>
       <c r="F51" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J51" s="6"/>
       <c r="M51" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="2:13">
@@ -2120,14 +1891,14 @@
     </row>
     <row r="55" customHeight="1" spans="8:8">
       <c r="H55" s="10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="2:13">
       <c r="B56" s="2"/>
       <c r="C56" s="3"/>
       <c r="M56" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="2:13">
@@ -2136,14 +1907,14 @@
       </c>
       <c r="C57" s="3"/>
       <c r="F57" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J57" s="6"/>
       <c r="M57" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="2:13">
@@ -2218,20 +1989,20 @@
     </row>
     <row r="61" customHeight="1" spans="8:10">
       <c r="H61" s="10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="2:13">
       <c r="B62" s="2"/>
       <c r="C62" s="3"/>
       <c r="J62" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="2:13">
@@ -2241,7 +2012,7 @@
       <c r="C63" s="3"/>
       <c r="J63" s="6"/>
       <c r="M63" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="2:13">
@@ -2316,20 +2087,20 @@
     </row>
     <row r="67" customHeight="1" spans="8:10">
       <c r="H67" s="10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" customHeight="1" spans="2:13">
       <c r="B68" s="2"/>
       <c r="C68" s="3"/>
       <c r="J68" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" customHeight="1" spans="2:12">
@@ -2340,7 +2111,7 @@
       <c r="J69" s="6"/>
       <c r="K69" s="13"/>
       <c r="L69" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70" customHeight="1" spans="2:13">
@@ -2415,20 +2186,20 @@
     </row>
     <row r="73" customHeight="1" spans="8:10">
       <c r="H73" s="10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74" customHeight="1" spans="2:11">
       <c r="B74" s="2"/>
       <c r="C74" s="3"/>
       <c r="J74" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75" customHeight="1" spans="2:12">

--- a/_book/src/main/leetcode_manuscripts/draw_io/leetcode_graph.xlsx
+++ b/_book/src/main/leetcode_manuscripts/draw_io/leetcode_graph.xlsx
@@ -4,19 +4,88 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16680" windowHeight="16960" activeTab="2"/>
+    <workbookView windowHeight="16700"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="index" sheetId="1" r:id="rId1"/>
+    <sheet name="dp" sheetId="2" r:id="rId2"/>
+    <sheet name="graph" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
+  <si>
+    <t>Week261</t>
+  </si>
+  <si>
+    <t>难度</t>
+  </si>
+  <si>
+    <t>链接</t>
+  </si>
+  <si>
+    <t>完成度</t>
+  </si>
+  <si>
+    <t>分析度</t>
+  </si>
+  <si>
+    <t>标签</t>
+  </si>
+  <si>
+    <t>关联题</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>Easy</t>
+  </si>
+  <si>
+    <t>2027. 转换字符串的最少操作次数</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>2028. 找出缺失的观测数据</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>2029. 石子游戏 IX</t>
+  </si>
+  <si>
+    <t>博弈，思维，石子游戏</t>
+  </si>
+  <si>
+    <t>石子游戏数题</t>
+  </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>Hard</t>
+  </si>
+  <si>
+    <t>grid</t>
+  </si>
+  <si>
+    <t>dp</t>
+  </si>
+  <si>
+    <t>sum</t>
+  </si>
   <si>
     <t>cur=3</t>
   </si>
@@ -73,10 +142,10 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <name val="宋体"/>
@@ -99,17 +168,28 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="14"/>
+      <name val="STHeiti Light"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="STHeiti Light"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF262626"/>
+      <name val="STHeiti Light"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -128,8 +208,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -142,11 +231,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -165,11 +253,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -181,8 +276,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,15 +293,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,17 +309,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -243,14 +330,14 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -301,49 +388,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -355,13 +490,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -373,97 +556,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,8 +611,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,8 +635,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,36 +683,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -608,152 +701,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -796,8 +889,29 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1118,36 +1232,200 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:A117"/>
+  <dimension ref="A1:R134"/>
   <sheetViews>
-    <sheetView topLeftCell="A128" workbookViewId="0">
-      <selection activeCell="E155" sqref="$A1:$XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
+      <selection activeCell="G157" sqref="G157"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.8"/>
   <cols>
-    <col min="1" max="256" width="11" customWidth="1"/>
+    <col min="1" max="2" width="14.2307692307692" style="14" customWidth="1"/>
+    <col min="3" max="3" width="47.2788461538462" style="14" customWidth="1"/>
+    <col min="4" max="5" width="11" style="14" customWidth="1"/>
+    <col min="6" max="6" width="31.0769230769231" style="14" customWidth="1"/>
+    <col min="7" max="7" width="19" style="14" customWidth="1"/>
+    <col min="8" max="257" width="11" style="14" customWidth="1"/>
+    <col min="258" max="16384" width="10" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="14"/>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="14"/>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="14"/>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="14"/>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" s="14"/>
-    </row>
-    <row r="117" spans="1:1">
-      <c r="A117" s="14"/>
+    <row r="1" spans="1:2">
+      <c r="A1" s="16"/>
+      <c r="B1" s="16"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="16"/>
+      <c r="B61" s="16"/>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="16"/>
+      <c r="B117" s="16"/>
+    </row>
+    <row r="130" spans="1:18">
+      <c r="A130" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B130" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C130" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D130" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E130" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F130" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G130" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="H130" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="K130" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L130" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="M130" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N130" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="O130" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="P130" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q130" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="R130" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131" ht="15" spans="1:12">
+      <c r="A131" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B131" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C131" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D131" s="20">
+        <v>1</v>
+      </c>
+      <c r="E131" s="14"/>
+      <c r="F131" s="14"/>
+      <c r="G131" s="14"/>
+      <c r="H131" s="14"/>
+      <c r="K131" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="L131" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132" ht="15" spans="1:12">
+      <c r="A132" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B132" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C132" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D132" s="20">
+        <v>1</v>
+      </c>
+      <c r="E132" s="14"/>
+      <c r="F132" s="14"/>
+      <c r="G132" s="14"/>
+      <c r="H132" s="14"/>
+      <c r="K132" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="L132" s="18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="133" ht="15" spans="1:12">
+      <c r="A133" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B133" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C133" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D133" s="21">
+        <v>1</v>
+      </c>
+      <c r="E133" s="14"/>
+      <c r="F133" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G133" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H133" s="14"/>
+      <c r="K133" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="L133" s="18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12">
+      <c r="A134" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B134" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C134" s="14"/>
+      <c r="D134" s="14"/>
+      <c r="E134" s="14"/>
+      <c r="F134" s="14"/>
+      <c r="G134" s="14"/>
+      <c r="H134" s="14"/>
+      <c r="K134" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L134" s="18" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C133" r:id="rId1" display="2029. 石子游戏 IX" tooltip="https://leetcode-cn.com/problems/stone-game-ix/"/>
+    <hyperlink ref="A130" r:id="rId2" display="Week261"/>
+    <hyperlink ref="C131" r:id="rId3" display="2027. 转换字符串的最少操作次数" tooltip="https://leetcode-cn.com/problems/minimum-moves-to-convert-string/"/>
+    <hyperlink ref="C132" r:id="rId4" display="2028. 找出缺失的观测数据" tooltip="https://leetcode-cn.com/problems/find-missing-observations/"/>
+  </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
@@ -1156,17 +1434,226 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="B6:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.8"/>
   <cols>
-    <col min="1" max="256" width="11" customWidth="1"/>
+    <col min="1" max="3" width="11" style="14" customWidth="1"/>
+    <col min="4" max="4" width="10.4230769230769" style="14" customWidth="1"/>
+    <col min="5" max="256" width="11" style="14" customWidth="1"/>
+    <col min="257" max="16384" width="10" style="14"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="6" spans="2:12">
+      <c r="B6" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="14">
+        <v>20</v>
+      </c>
+      <c r="D6" s="14">
+        <v>3</v>
+      </c>
+      <c r="E6" s="14">
+        <v>20</v>
+      </c>
+      <c r="F6" s="14">
+        <v>17</v>
+      </c>
+      <c r="G6" s="14">
+        <v>2</v>
+      </c>
+      <c r="H6" s="14">
+        <v>12</v>
+      </c>
+      <c r="I6" s="14">
+        <v>15</v>
+      </c>
+      <c r="J6" s="14">
+        <v>17</v>
+      </c>
+      <c r="K6" s="14">
+        <v>4</v>
+      </c>
+      <c r="L6" s="14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="3:12">
+      <c r="C7" s="14">
+        <v>20</v>
+      </c>
+      <c r="D7" s="14">
+        <v>10</v>
+      </c>
+      <c r="E7" s="14">
+        <v>13</v>
+      </c>
+      <c r="F7" s="14">
+        <v>14</v>
+      </c>
+      <c r="G7" s="14">
+        <v>15</v>
+      </c>
+      <c r="H7" s="14">
+        <v>5</v>
+      </c>
+      <c r="I7" s="14">
+        <v>2</v>
+      </c>
+      <c r="J7" s="14">
+        <v>3</v>
+      </c>
+      <c r="K7" s="14">
+        <v>14</v>
+      </c>
+      <c r="L7" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="B9" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="14">
+        <v>20</v>
+      </c>
+      <c r="D9" s="14">
+        <v>23</v>
+      </c>
+      <c r="E9" s="14">
+        <v>43</v>
+      </c>
+      <c r="F9" s="14">
+        <v>60</v>
+      </c>
+      <c r="G9" s="14">
+        <v>62</v>
+      </c>
+      <c r="H9" s="14">
+        <v>74</v>
+      </c>
+      <c r="I9" s="14">
+        <v>89</v>
+      </c>
+      <c r="J9" s="14">
+        <v>106</v>
+      </c>
+      <c r="K9" s="14">
+        <v>110</v>
+      </c>
+      <c r="L9" s="14">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="3:12">
+      <c r="C10" s="14">
+        <v>40</v>
+      </c>
+      <c r="D10" s="14">
+        <v>50</v>
+      </c>
+      <c r="E10" s="14">
+        <v>63</v>
+      </c>
+      <c r="F10" s="14">
+        <v>77</v>
+      </c>
+      <c r="G10" s="14">
+        <v>92</v>
+      </c>
+      <c r="H10" s="14">
+        <v>97</v>
+      </c>
+      <c r="I10" s="14">
+        <v>99</v>
+      </c>
+      <c r="J10" s="14">
+        <v>109</v>
+      </c>
+      <c r="K10" s="14">
+        <v>124</v>
+      </c>
+      <c r="L10" s="14">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12">
+      <c r="B13" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="14">
+        <v>0</v>
+      </c>
+      <c r="D13" s="14">
+        <v>0</v>
+      </c>
+      <c r="E13" s="14">
+        <v>0</v>
+      </c>
+      <c r="F13" s="14">
+        <v>0</v>
+      </c>
+      <c r="G13" s="14">
+        <v>0</v>
+      </c>
+      <c r="H13" s="14">
+        <v>0</v>
+      </c>
+      <c r="I13" s="14">
+        <v>0</v>
+      </c>
+      <c r="J13" s="14">
+        <v>0</v>
+      </c>
+      <c r="K13" s="14">
+        <v>0</v>
+      </c>
+      <c r="L13" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12">
+      <c r="B14" s="15">
+        <f>SUM(C14:K14)</f>
+        <v>96</v>
+      </c>
+      <c r="C14" s="14">
+        <v>20</v>
+      </c>
+      <c r="D14" s="14">
+        <v>10</v>
+      </c>
+      <c r="E14" s="14">
+        <v>13</v>
+      </c>
+      <c r="F14" s="14">
+        <v>14</v>
+      </c>
+      <c r="G14" s="14">
+        <v>15</v>
+      </c>
+      <c r="H14" s="14">
+        <v>5</v>
+      </c>
+      <c r="I14" s="14">
+        <v>2</v>
+      </c>
+      <c r="J14" s="14">
+        <v>3</v>
+      </c>
+      <c r="K14" s="14">
+        <v>14</v>
+      </c>
+      <c r="L14" s="14">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
@@ -1177,8 +1664,8 @@
   <sheetPr/>
   <dimension ref="B3:N78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="C71" sqref="C70:C71"/>
+    <sheetView topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="R70" sqref="R70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.73076923076923" defaultRowHeight="35" customHeight="1"/>
@@ -1276,7 +1763,7 @@
       </c>
       <c r="C10" s="3"/>
       <c r="F10" s="1" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="J10" s="6"/>
     </row>
@@ -1359,7 +1846,7 @@
       </c>
       <c r="C17" s="3"/>
       <c r="I17" s="1" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="J17" s="6"/>
     </row>
@@ -1436,7 +1923,7 @@
       <c r="B23" s="2"/>
       <c r="C23" s="3"/>
       <c r="J23" s="1" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="2:10">
@@ -1526,7 +2013,7 @@
       <c r="C31" s="3"/>
       <c r="J31" s="6"/>
       <c r="M31" s="1" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="2:13">
@@ -1600,14 +2087,14 @@
     </row>
     <row r="37" customHeight="1" spans="8:8">
       <c r="H37" s="10" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="2:13">
       <c r="B38" s="2"/>
       <c r="C38" s="3"/>
       <c r="M38" s="1" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="2:13">
@@ -1616,11 +2103,11 @@
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="1" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="J39" s="6"/>
       <c r="M39" s="1" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="2:13">
@@ -1629,7 +2116,7 @@
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="1" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="F40" s="6"/>
       <c r="G40" s="7"/>
@@ -1698,14 +2185,14 @@
     </row>
     <row r="43" customHeight="1" spans="8:8">
       <c r="H43" s="10" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="2:13">
       <c r="B44" s="2"/>
       <c r="C44" s="3"/>
       <c r="M44" s="1" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="2:13">
@@ -1714,11 +2201,11 @@
       </c>
       <c r="C45" s="3"/>
       <c r="G45" s="1" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="J45" s="6"/>
       <c r="M45" s="1" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="2:13">
@@ -1793,14 +2280,14 @@
     </row>
     <row r="49" customHeight="1" spans="8:8">
       <c r="H49" s="10" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="2:13">
       <c r="B50" s="2"/>
       <c r="C50" s="3"/>
       <c r="M50" s="1" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="2:13">
@@ -1809,14 +2296,14 @@
       </c>
       <c r="C51" s="3"/>
       <c r="F51" s="1" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="J51" s="6"/>
       <c r="M51" s="1" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="2:13">
@@ -1891,14 +2378,14 @@
     </row>
     <row r="55" customHeight="1" spans="8:8">
       <c r="H55" s="10" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="2:13">
       <c r="B56" s="2"/>
       <c r="C56" s="3"/>
       <c r="M56" s="1" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="2:13">
@@ -1907,14 +2394,14 @@
       </c>
       <c r="C57" s="3"/>
       <c r="F57" s="1" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="J57" s="6"/>
       <c r="M57" s="1" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="2:13">
@@ -1989,20 +2476,20 @@
     </row>
     <row r="61" customHeight="1" spans="8:10">
       <c r="H61" s="10" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="2:13">
       <c r="B62" s="2"/>
       <c r="C62" s="3"/>
       <c r="J62" s="1" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="2:13">
@@ -2012,7 +2499,7 @@
       <c r="C63" s="3"/>
       <c r="J63" s="6"/>
       <c r="M63" s="1" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="2:13">
@@ -2087,20 +2574,20 @@
     </row>
     <row r="67" customHeight="1" spans="8:10">
       <c r="H67" s="10" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
     </row>
     <row r="68" customHeight="1" spans="2:13">
       <c r="B68" s="2"/>
       <c r="C68" s="3"/>
       <c r="J68" s="1" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="69" customHeight="1" spans="2:12">
@@ -2111,7 +2598,7 @@
       <c r="J69" s="6"/>
       <c r="K69" s="13"/>
       <c r="L69" s="1" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70" customHeight="1" spans="2:13">
@@ -2186,20 +2673,20 @@
     </row>
     <row r="73" customHeight="1" spans="8:10">
       <c r="H73" s="10" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
     </row>
     <row r="74" customHeight="1" spans="2:11">
       <c r="B74" s="2"/>
       <c r="C74" s="3"/>
       <c r="J74" s="1" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="75" customHeight="1" spans="2:12">

--- a/_book/src/main/leetcode_manuscripts/draw_io/leetcode_graph.xlsx
+++ b/_book/src/main/leetcode_manuscripts/draw_io/leetcode_graph.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
   <si>
     <t>Week261</t>
   </si>
@@ -76,6 +76,11 @@
   </si>
   <si>
     <t>Hard</t>
+  </si>
+  <si>
+    <t>316. 去除重复字母
+1081. 不同字符的最小子序列
+402. 移掉 K 位数字</t>
   </si>
   <si>
     <t>grid</t>
@@ -561,7 +566,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -594,6 +599,86 @@
       <right/>
       <top/>
       <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -710,7 +795,7 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -743,7 +828,7 @@
     <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -761,19 +846,19 @@
     <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -809,7 +894,7 @@
     <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -827,13 +912,13 @@
     <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -842,11 +927,11 @@
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -898,19 +983,58 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1235,7 +1359,7 @@
   <dimension ref="A1:R134"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
-      <selection activeCell="G157" sqref="G157"/>
+      <selection activeCell="G140" sqref="G140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.8"/>
@@ -1244,7 +1368,7 @@
     <col min="3" max="3" width="47.2788461538462" style="14" customWidth="1"/>
     <col min="4" max="5" width="11" style="14" customWidth="1"/>
     <col min="6" max="6" width="31.0769230769231" style="14" customWidth="1"/>
-    <col min="7" max="7" width="19" style="14" customWidth="1"/>
+    <col min="7" max="7" width="39.3076923076923" style="14" customWidth="1"/>
     <col min="8" max="257" width="11" style="14" customWidth="1"/>
     <col min="258" max="16384" width="10" style="14"/>
   </cols>
@@ -1273,35 +1397,36 @@
       <c r="A117" s="16"/>
       <c r="B117" s="16"/>
     </row>
+    <row r="129" ht="15.55"/>
     <row r="130" spans="1:18">
       <c r="A130" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B130" s="17" t="s">
+      <c r="B130" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C130" s="18" t="s">
+      <c r="C130" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D130" s="18" t="s">
+      <c r="D130" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E130" s="18" t="s">
+      <c r="E130" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F130" s="18" t="s">
+      <c r="F130" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G130" s="18" t="s">
+      <c r="G130" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H130" s="18" t="s">
+      <c r="H130" s="28" t="s">
         <v>7</v>
       </c>
       <c r="K130" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="L130" s="17" t="s">
+      <c r="L130" s="33" t="s">
         <v>1</v>
       </c>
       <c r="M130" s="14" t="s">
@@ -1324,98 +1449,100 @@
       </c>
     </row>
     <row r="131" ht="15" spans="1:12">
-      <c r="A131" s="18" t="s">
+      <c r="A131" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B131" s="18" t="s">
+      <c r="B131" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C131" s="19" t="s">
+      <c r="C131" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D131" s="20">
+      <c r="D131" s="23">
         <v>1</v>
       </c>
-      <c r="E131" s="14"/>
-      <c r="F131" s="14"/>
-      <c r="G131" s="14"/>
-      <c r="H131" s="14"/>
-      <c r="K131" s="18" t="s">
+      <c r="E131" s="29"/>
+      <c r="F131" s="29"/>
+      <c r="G131" s="29"/>
+      <c r="H131" s="30"/>
+      <c r="K131" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="L131" s="18" t="s">
+      <c r="L131" s="34" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="132" ht="15" spans="1:12">
-      <c r="A132" s="18" t="s">
+      <c r="A132" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B132" s="18" t="s">
+      <c r="B132" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C132" s="19" t="s">
+      <c r="C132" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D132" s="20">
+      <c r="D132" s="23">
         <v>1</v>
       </c>
-      <c r="E132" s="14"/>
-      <c r="F132" s="14"/>
-      <c r="G132" s="14"/>
-      <c r="H132" s="14"/>
+      <c r="E132" s="29"/>
+      <c r="F132" s="29"/>
+      <c r="G132" s="29"/>
+      <c r="H132" s="30"/>
       <c r="K132" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="L132" s="18" t="s">
+      <c r="L132" s="34" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="133" ht="15" spans="1:12">
-      <c r="A133" s="18" t="s">
+      <c r="A133" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B133" s="18" t="s">
+      <c r="B133" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C133" s="19" t="s">
+      <c r="C133" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D133" s="21">
+      <c r="D133" s="24">
         <v>1</v>
       </c>
-      <c r="E133" s="14"/>
-      <c r="F133" s="14" t="s">
+      <c r="E133" s="29"/>
+      <c r="F133" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="G133" s="14" t="s">
+      <c r="G133" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="H133" s="14"/>
-      <c r="K133" s="18" t="s">
+      <c r="H133" s="30"/>
+      <c r="K133" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="L133" s="18" t="s">
+      <c r="L133" s="34" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="134" spans="1:12">
-      <c r="A134" s="18" t="s">
+    <row r="134" ht="45.75" spans="1:12">
+      <c r="A134" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B134" s="18" t="s">
+      <c r="B134" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C134" s="14"/>
-      <c r="D134" s="14"/>
-      <c r="E134" s="14"/>
-      <c r="F134" s="14"/>
-      <c r="G134" s="14"/>
-      <c r="H134" s="14"/>
+      <c r="C134" s="27"/>
+      <c r="D134" s="27"/>
+      <c r="E134" s="27"/>
+      <c r="F134" s="27"/>
+      <c r="G134" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="H134" s="32"/>
       <c r="K134" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="L134" s="18" t="s">
+      <c r="L134" s="34" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1450,7 +1577,7 @@
   <sheetData>
     <row r="6" spans="2:12">
       <c r="B6" s="15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" s="14">
         <v>20</v>
@@ -1517,7 +1644,7 @@
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" s="14">
         <v>20</v>
@@ -1584,7 +1711,7 @@
     </row>
     <row r="13" spans="2:12">
       <c r="B13" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="14">
         <v>0</v>
@@ -1763,7 +1890,7 @@
       </c>
       <c r="C10" s="3"/>
       <c r="F10" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J10" s="6"/>
     </row>
@@ -1846,7 +1973,7 @@
       </c>
       <c r="C17" s="3"/>
       <c r="I17" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J17" s="6"/>
     </row>
@@ -1923,7 +2050,7 @@
       <c r="B23" s="2"/>
       <c r="C23" s="3"/>
       <c r="J23" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="2:10">
@@ -2013,7 +2140,7 @@
       <c r="C31" s="3"/>
       <c r="J31" s="6"/>
       <c r="M31" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="2:13">
@@ -2087,14 +2214,14 @@
     </row>
     <row r="37" customHeight="1" spans="8:8">
       <c r="H37" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="2:13">
       <c r="B38" s="2"/>
       <c r="C38" s="3"/>
       <c r="M38" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="2:13">
@@ -2103,11 +2230,11 @@
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J39" s="6"/>
       <c r="M39" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="2:13">
@@ -2116,7 +2243,7 @@
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F40" s="6"/>
       <c r="G40" s="7"/>
@@ -2185,14 +2312,14 @@
     </row>
     <row r="43" customHeight="1" spans="8:8">
       <c r="H43" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="2:13">
       <c r="B44" s="2"/>
       <c r="C44" s="3"/>
       <c r="M44" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="2:13">
@@ -2201,11 +2328,11 @@
       </c>
       <c r="C45" s="3"/>
       <c r="G45" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J45" s="6"/>
       <c r="M45" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="2:13">
@@ -2280,14 +2407,14 @@
     </row>
     <row r="49" customHeight="1" spans="8:8">
       <c r="H49" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="2:13">
       <c r="B50" s="2"/>
       <c r="C50" s="3"/>
       <c r="M50" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="2:13">
@@ -2296,14 +2423,14 @@
       </c>
       <c r="C51" s="3"/>
       <c r="F51" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J51" s="6"/>
       <c r="M51" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="2:13">
@@ -2378,14 +2505,14 @@
     </row>
     <row r="55" customHeight="1" spans="8:8">
       <c r="H55" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="2:13">
       <c r="B56" s="2"/>
       <c r="C56" s="3"/>
       <c r="M56" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="2:13">
@@ -2394,14 +2521,14 @@
       </c>
       <c r="C57" s="3"/>
       <c r="F57" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J57" s="6"/>
       <c r="M57" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="2:13">
@@ -2476,20 +2603,20 @@
     </row>
     <row r="61" customHeight="1" spans="8:10">
       <c r="H61" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="2:13">
       <c r="B62" s="2"/>
       <c r="C62" s="3"/>
       <c r="J62" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="2:13">
@@ -2499,7 +2626,7 @@
       <c r="C63" s="3"/>
       <c r="J63" s="6"/>
       <c r="M63" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="2:13">
@@ -2574,20 +2701,20 @@
     </row>
     <row r="67" customHeight="1" spans="8:10">
       <c r="H67" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68" customHeight="1" spans="2:13">
       <c r="B68" s="2"/>
       <c r="C68" s="3"/>
       <c r="J68" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="69" customHeight="1" spans="2:12">
@@ -2598,7 +2725,7 @@
       <c r="J69" s="6"/>
       <c r="K69" s="13"/>
       <c r="L69" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="70" customHeight="1" spans="2:13">
@@ -2673,20 +2800,20 @@
     </row>
     <row r="73" customHeight="1" spans="8:10">
       <c r="H73" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="74" customHeight="1" spans="2:11">
       <c r="B74" s="2"/>
       <c r="C74" s="3"/>
       <c r="J74" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="75" customHeight="1" spans="2:12">

--- a/_book/src/main/leetcode_manuscripts/draw_io/leetcode_graph.xlsx
+++ b/_book/src/main/leetcode_manuscripts/draw_io/leetcode_graph.xlsx
@@ -4,93 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16700"/>
+    <workbookView windowWidth="16680" windowHeight="16960" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="index" sheetId="1" r:id="rId1"/>
-    <sheet name="dp" sheetId="2" r:id="rId2"/>
-    <sheet name="graph" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
-  <si>
-    <t>Week261</t>
-  </si>
-  <si>
-    <t>难度</t>
-  </si>
-  <si>
-    <t>链接</t>
-  </si>
-  <si>
-    <t>完成度</t>
-  </si>
-  <si>
-    <t>分析度</t>
-  </si>
-  <si>
-    <t>标签</t>
-  </si>
-  <si>
-    <t>关联题</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>T1</t>
-  </si>
-  <si>
-    <t>Easy</t>
-  </si>
-  <si>
-    <t>2027. 转换字符串的最少操作次数</t>
-  </si>
-  <si>
-    <t>T2</t>
-  </si>
-  <si>
-    <t>Medium</t>
-  </si>
-  <si>
-    <t>2028. 找出缺失的观测数据</t>
-  </si>
-  <si>
-    <t>T3</t>
-  </si>
-  <si>
-    <t>2029. 石子游戏 IX</t>
-  </si>
-  <si>
-    <t>博弈，思维，石子游戏</t>
-  </si>
-  <si>
-    <t>石子游戏数题</t>
-  </si>
-  <si>
-    <t>T4</t>
-  </si>
-  <si>
-    <t>Hard</t>
-  </si>
-  <si>
-    <t>316. 去除重复字母
-1081. 不同字符的最小子序列
-402. 移掉 K 位数字</t>
-  </si>
-  <si>
-    <t>grid</t>
-  </si>
-  <si>
-    <t>dp</t>
-  </si>
-  <si>
-    <t>sum</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
   <si>
     <t>cur=3</t>
   </si>
@@ -147,10 +73,10 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <name val="宋体"/>
@@ -173,28 +99,17 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="14"/>
-      <name val="STHeiti Light"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="STHeiti Light"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF262626"/>
-      <name val="STHeiti Light"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -213,6 +128,105 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -221,92 +235,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -319,30 +249,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="38">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -393,180 +301,174 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="20">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -604,115 +506,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -726,17 +524,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -768,6 +560,36 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -786,152 +608,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -974,68 +796,8 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1356,203 +1118,36 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:R134"/>
+  <dimension ref="A1:A117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
-      <selection activeCell="G140" sqref="G140"/>
+    <sheetView topLeftCell="A128" workbookViewId="0">
+      <selection activeCell="E155" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.8"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="2" width="14.2307692307692" style="14" customWidth="1"/>
-    <col min="3" max="3" width="47.2788461538462" style="14" customWidth="1"/>
-    <col min="4" max="5" width="11" style="14" customWidth="1"/>
-    <col min="6" max="6" width="31.0769230769231" style="14" customWidth="1"/>
-    <col min="7" max="7" width="39.3076923076923" style="14" customWidth="1"/>
-    <col min="8" max="257" width="11" style="14" customWidth="1"/>
-    <col min="258" max="16384" width="10" style="14"/>
+    <col min="1" max="256" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="16"/>
-      <c r="B1" s="16"/>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="16"/>
-      <c r="B61" s="16"/>
-    </row>
-    <row r="117" spans="1:2">
-      <c r="A117" s="16"/>
-      <c r="B117" s="16"/>
-    </row>
-    <row r="129" ht="15.55"/>
-    <row r="130" spans="1:18">
-      <c r="A130" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B130" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C130" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D130" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E130" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F130" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="G130" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="H130" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="K130" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="L130" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="M130" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="N130" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="O130" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="P130" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q130" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="R130" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="131" ht="15" spans="1:12">
-      <c r="A131" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B131" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C131" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D131" s="23">
-        <v>1</v>
-      </c>
-      <c r="E131" s="29"/>
-      <c r="F131" s="29"/>
-      <c r="G131" s="29"/>
-      <c r="H131" s="30"/>
-      <c r="K131" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="L131" s="34" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="132" ht="15" spans="1:12">
-      <c r="A132" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B132" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C132" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D132" s="23">
-        <v>1</v>
-      </c>
-      <c r="E132" s="29"/>
-      <c r="F132" s="29"/>
-      <c r="G132" s="29"/>
-      <c r="H132" s="30"/>
-      <c r="K132" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="L132" s="34" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="133" ht="15" spans="1:12">
-      <c r="A133" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B133" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C133" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="D133" s="24">
-        <v>1</v>
-      </c>
-      <c r="E133" s="29"/>
-      <c r="F133" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="G133" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="H133" s="30"/>
-      <c r="K133" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="L133" s="34" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="134" ht="45.75" spans="1:12">
-      <c r="A134" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="B134" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="C134" s="27"/>
-      <c r="D134" s="27"/>
-      <c r="E134" s="27"/>
-      <c r="F134" s="27"/>
-      <c r="G134" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="H134" s="32"/>
-      <c r="K134" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="L134" s="34" t="s">
-        <v>19</v>
-      </c>
+    <row r="1" spans="1:1">
+      <c r="A1" s="14"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="14"/>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="14"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="14"/>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="14"/>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="14"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C133" r:id="rId1" display="2029. 石子游戏 IX" tooltip="https://leetcode-cn.com/problems/stone-game-ix/"/>
-    <hyperlink ref="A130" r:id="rId2" display="Week261"/>
-    <hyperlink ref="C131" r:id="rId3" display="2027. 转换字符串的最少操作次数" tooltip="https://leetcode-cn.com/problems/minimum-moves-to-convert-string/"/>
-    <hyperlink ref="C132" r:id="rId4" display="2028. 找出缺失的观测数据" tooltip="https://leetcode-cn.com/problems/find-missing-observations/"/>
-  </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
@@ -1561,226 +1156,17 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B6:L14"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.8"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="3" width="11" style="14" customWidth="1"/>
-    <col min="4" max="4" width="10.4230769230769" style="14" customWidth="1"/>
-    <col min="5" max="256" width="11" style="14" customWidth="1"/>
-    <col min="257" max="16384" width="10" style="14"/>
+    <col min="1" max="256" width="11" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="6" spans="2:12">
-      <c r="B6" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="14">
-        <v>20</v>
-      </c>
-      <c r="D6" s="14">
-        <v>3</v>
-      </c>
-      <c r="E6" s="14">
-        <v>20</v>
-      </c>
-      <c r="F6" s="14">
-        <v>17</v>
-      </c>
-      <c r="G6" s="14">
-        <v>2</v>
-      </c>
-      <c r="H6" s="14">
-        <v>12</v>
-      </c>
-      <c r="I6" s="14">
-        <v>15</v>
-      </c>
-      <c r="J6" s="14">
-        <v>17</v>
-      </c>
-      <c r="K6" s="14">
-        <v>4</v>
-      </c>
-      <c r="L6" s="14">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="3:12">
-      <c r="C7" s="14">
-        <v>20</v>
-      </c>
-      <c r="D7" s="14">
-        <v>10</v>
-      </c>
-      <c r="E7" s="14">
-        <v>13</v>
-      </c>
-      <c r="F7" s="14">
-        <v>14</v>
-      </c>
-      <c r="G7" s="14">
-        <v>15</v>
-      </c>
-      <c r="H7" s="14">
-        <v>5</v>
-      </c>
-      <c r="I7" s="14">
-        <v>2</v>
-      </c>
-      <c r="J7" s="14">
-        <v>3</v>
-      </c>
-      <c r="K7" s="14">
-        <v>14</v>
-      </c>
-      <c r="L7" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12">
-      <c r="B9" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="14">
-        <v>20</v>
-      </c>
-      <c r="D9" s="14">
-        <v>23</v>
-      </c>
-      <c r="E9" s="14">
-        <v>43</v>
-      </c>
-      <c r="F9" s="14">
-        <v>60</v>
-      </c>
-      <c r="G9" s="14">
-        <v>62</v>
-      </c>
-      <c r="H9" s="14">
-        <v>74</v>
-      </c>
-      <c r="I9" s="14">
-        <v>89</v>
-      </c>
-      <c r="J9" s="14">
-        <v>106</v>
-      </c>
-      <c r="K9" s="14">
-        <v>110</v>
-      </c>
-      <c r="L9" s="14">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="10" spans="3:12">
-      <c r="C10" s="14">
-        <v>40</v>
-      </c>
-      <c r="D10" s="14">
-        <v>50</v>
-      </c>
-      <c r="E10" s="14">
-        <v>63</v>
-      </c>
-      <c r="F10" s="14">
-        <v>77</v>
-      </c>
-      <c r="G10" s="14">
-        <v>92</v>
-      </c>
-      <c r="H10" s="14">
-        <v>97</v>
-      </c>
-      <c r="I10" s="14">
-        <v>99</v>
-      </c>
-      <c r="J10" s="14">
-        <v>109</v>
-      </c>
-      <c r="K10" s="14">
-        <v>124</v>
-      </c>
-      <c r="L10" s="14">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12">
-      <c r="B13" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="14">
-        <v>0</v>
-      </c>
-      <c r="D13" s="14">
-        <v>0</v>
-      </c>
-      <c r="E13" s="14">
-        <v>0</v>
-      </c>
-      <c r="F13" s="14">
-        <v>0</v>
-      </c>
-      <c r="G13" s="14">
-        <v>0</v>
-      </c>
-      <c r="H13" s="14">
-        <v>0</v>
-      </c>
-      <c r="I13" s="14">
-        <v>0</v>
-      </c>
-      <c r="J13" s="14">
-        <v>0</v>
-      </c>
-      <c r="K13" s="14">
-        <v>0</v>
-      </c>
-      <c r="L13" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12">
-      <c r="B14" s="15">
-        <f>SUM(C14:K14)</f>
-        <v>96</v>
-      </c>
-      <c r="C14" s="14">
-        <v>20</v>
-      </c>
-      <c r="D14" s="14">
-        <v>10</v>
-      </c>
-      <c r="E14" s="14">
-        <v>13</v>
-      </c>
-      <c r="F14" s="14">
-        <v>14</v>
-      </c>
-      <c r="G14" s="14">
-        <v>15</v>
-      </c>
-      <c r="H14" s="14">
-        <v>5</v>
-      </c>
-      <c r="I14" s="14">
-        <v>2</v>
-      </c>
-      <c r="J14" s="14">
-        <v>3</v>
-      </c>
-      <c r="K14" s="14">
-        <v>14</v>
-      </c>
-      <c r="L14" s="14">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
@@ -1791,8 +1177,8 @@
   <sheetPr/>
   <dimension ref="B3:N78"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="R70" sqref="R70"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="C71" sqref="C70:C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.73076923076923" defaultRowHeight="35" customHeight="1"/>
@@ -1890,7 +1276,7 @@
       </c>
       <c r="C10" s="3"/>
       <c r="F10" s="1" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="J10" s="6"/>
     </row>
@@ -1973,7 +1359,7 @@
       </c>
       <c r="C17" s="3"/>
       <c r="I17" s="1" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="J17" s="6"/>
     </row>
@@ -2050,7 +1436,7 @@
       <c r="B23" s="2"/>
       <c r="C23" s="3"/>
       <c r="J23" s="1" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="2:10">
@@ -2140,7 +1526,7 @@
       <c r="C31" s="3"/>
       <c r="J31" s="6"/>
       <c r="M31" s="1" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="2:13">
@@ -2214,14 +1600,14 @@
     </row>
     <row r="37" customHeight="1" spans="8:8">
       <c r="H37" s="10" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="2:13">
       <c r="B38" s="2"/>
       <c r="C38" s="3"/>
       <c r="M38" s="1" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="2:13">
@@ -2230,11 +1616,11 @@
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="1" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="J39" s="6"/>
       <c r="M39" s="1" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="2:13">
@@ -2243,7 +1629,7 @@
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="1" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="F40" s="6"/>
       <c r="G40" s="7"/>
@@ -2312,14 +1698,14 @@
     </row>
     <row r="43" customHeight="1" spans="8:8">
       <c r="H43" s="10" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="2:13">
       <c r="B44" s="2"/>
       <c r="C44" s="3"/>
       <c r="M44" s="1" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="2:13">
@@ -2328,11 +1714,11 @@
       </c>
       <c r="C45" s="3"/>
       <c r="G45" s="1" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="J45" s="6"/>
       <c r="M45" s="1" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="2:13">
@@ -2407,14 +1793,14 @@
     </row>
     <row r="49" customHeight="1" spans="8:8">
       <c r="H49" s="10" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="2:13">
       <c r="B50" s="2"/>
       <c r="C50" s="3"/>
       <c r="M50" s="1" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="2:13">
@@ -2423,14 +1809,14 @@
       </c>
       <c r="C51" s="3"/>
       <c r="F51" s="1" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="J51" s="6"/>
       <c r="M51" s="1" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="2:13">
@@ -2505,14 +1891,14 @@
     </row>
     <row r="55" customHeight="1" spans="8:8">
       <c r="H55" s="10" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="2:13">
       <c r="B56" s="2"/>
       <c r="C56" s="3"/>
       <c r="M56" s="1" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="2:13">
@@ -2521,14 +1907,14 @@
       </c>
       <c r="C57" s="3"/>
       <c r="F57" s="1" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="J57" s="6"/>
       <c r="M57" s="1" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="2:13">
@@ -2603,20 +1989,20 @@
     </row>
     <row r="61" customHeight="1" spans="8:10">
       <c r="H61" s="10" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="2:13">
       <c r="B62" s="2"/>
       <c r="C62" s="3"/>
       <c r="J62" s="1" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="2:13">
@@ -2626,7 +2012,7 @@
       <c r="C63" s="3"/>
       <c r="J63" s="6"/>
       <c r="M63" s="1" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="2:13">
@@ -2701,20 +2087,20 @@
     </row>
     <row r="67" customHeight="1" spans="8:10">
       <c r="H67" s="10" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" customHeight="1" spans="2:13">
       <c r="B68" s="2"/>
       <c r="C68" s="3"/>
       <c r="J68" s="1" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" customHeight="1" spans="2:12">
@@ -2725,7 +2111,7 @@
       <c r="J69" s="6"/>
       <c r="K69" s="13"/>
       <c r="L69" s="1" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70" customHeight="1" spans="2:13">
@@ -2800,20 +2186,20 @@
     </row>
     <row r="73" customHeight="1" spans="8:10">
       <c r="H73" s="10" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74" customHeight="1" spans="2:11">
       <c r="B74" s="2"/>
       <c r="C74" s="3"/>
       <c r="J74" s="1" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75" customHeight="1" spans="2:12">

--- a/_book/src/main/leetcode_manuscripts/draw_io/leetcode_graph.xlsx
+++ b/_book/src/main/leetcode_manuscripts/draw_io/leetcode_graph.xlsx
@@ -4,19 +4,166 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16680" windowHeight="16960" activeTab="2"/>
+    <workbookView windowHeight="16700"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="index" sheetId="1" r:id="rId1"/>
+    <sheet name="dp" sheetId="2" r:id="rId2"/>
+    <sheet name="graph" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
+  <si>
+    <t>Week261</t>
+  </si>
+  <si>
+    <t>难度</t>
+  </si>
+  <si>
+    <t>链接</t>
+  </si>
+  <si>
+    <t>完成度</t>
+  </si>
+  <si>
+    <t>分析度</t>
+  </si>
+  <si>
+    <t>标签</t>
+  </si>
+  <si>
+    <t>关联题</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>Easy</t>
+  </si>
+  <si>
+    <t>2027. 转换字符串的最少操作次数</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>2028. 找出缺失的观测数据</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>2029. 石子游戏 IX</t>
+  </si>
+  <si>
+    <t>博弈，思维，石子游戏</t>
+  </si>
+  <si>
+    <t>石子游戏数题</t>
+  </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>Hard</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2030. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF262626"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>含特定字母的最小子序列</t>
+    </r>
+  </si>
+  <si>
+    <t>316. 去除重复字母
+1081. 不同字符的最小子序列
+402. 移掉 K 位数字
+321. 拼接最大数</t>
+  </si>
+  <si>
+    <t>Week263</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2042. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF262626"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>检查句子中的数字是否递增</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2043. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF262626"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>简易银行系统</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2044. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>统计按位或能得到最大值的子集数目</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2045. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF262626"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>到达目的地的第二短时间</t>
+    </r>
+  </si>
+  <si>
+    <t>grid</t>
+  </si>
+  <si>
+    <t>dp</t>
+  </si>
+  <si>
+    <t>sum</t>
+  </si>
   <si>
     <t>cur=3</t>
   </si>
@@ -73,10 +220,10 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <name val="宋体"/>
@@ -99,17 +246,39 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="14"/>
+      <name val="STHeiti Light"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color rgb="FF800080"/>
+      <name val="STHeiti Light"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF262626"/>
+      <name val="STHeiti Light"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF262626"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -128,8 +297,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -142,11 +320,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -165,11 +342,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -181,8 +365,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,15 +382,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,17 +398,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -243,14 +419,25 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF262626"/>
+      <name val="方正书宋_GBK"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="方正书宋_GBK"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -301,49 +488,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -355,13 +590,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -373,102 +656,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -506,11 +699,115 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -524,11 +821,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,36 +863,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -608,152 +881,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -796,8 +1069,119 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1118,36 +1502,293 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:A117"/>
+  <dimension ref="A1:S117"/>
   <sheetViews>
-    <sheetView topLeftCell="A128" workbookViewId="0">
-      <selection activeCell="E155" sqref="$A1:$XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AB11" sqref="AB11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.8"/>
   <cols>
-    <col min="1" max="256" width="11" customWidth="1"/>
+    <col min="1" max="2" width="14.2307692307692" style="14" customWidth="1"/>
+    <col min="3" max="3" width="57.2692307692308" style="14" customWidth="1"/>
+    <col min="4" max="5" width="11" style="14" customWidth="1"/>
+    <col min="6" max="6" width="31.0769230769231" style="14" customWidth="1"/>
+    <col min="7" max="7" width="39.3076923076923" style="14" customWidth="1"/>
+    <col min="8" max="257" width="11" style="14" customWidth="1"/>
+    <col min="258" max="16384" width="10" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="14"/>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="14"/>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="14"/>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="14"/>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" s="14"/>
-    </row>
-    <row r="117" spans="1:1">
-      <c r="A117" s="14"/>
+    <row r="1" spans="1:2">
+      <c r="A1" s="16"/>
+      <c r="B1" s="16"/>
+    </row>
+    <row r="3" ht="15.55"/>
+    <row r="4" spans="1:8">
+      <c r="A4" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" ht="15" spans="1:19">
+      <c r="A5" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="23">
+        <v>1</v>
+      </c>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="43"/>
+      <c r="L5" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M5" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="N5" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="O5" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="P5" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="R5" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="S5" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" ht="15" spans="1:13">
+      <c r="A6" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="23">
+        <v>1</v>
+      </c>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="43"/>
+      <c r="L6" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="M6" s="33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" ht="15" spans="1:13">
+      <c r="A7" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="24">
+        <v>1</v>
+      </c>
+      <c r="E7" s="42"/>
+      <c r="F7" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="43"/>
+      <c r="L7" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="M7" s="33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" ht="60.75" spans="1:13">
+      <c r="A8" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="28">
+        <v>0.7</v>
+      </c>
+      <c r="E8" s="28">
+        <v>0.4</v>
+      </c>
+      <c r="F8" s="44"/>
+      <c r="G8" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="46"/>
+      <c r="L8" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="M8" s="33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="12:13">
+      <c r="L9" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M9" s="33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" ht="15.55"/>
+    <row r="17" spans="1:8">
+      <c r="A17" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" s="47" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" ht="17" spans="1:8">
+      <c r="A18" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="23">
+        <v>1</v>
+      </c>
+      <c r="H18" s="48"/>
+    </row>
+    <row r="19" ht="17" spans="1:8">
+      <c r="A19" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="23">
+        <v>1</v>
+      </c>
+      <c r="H19" s="48"/>
+    </row>
+    <row r="20" ht="17" spans="1:8">
+      <c r="A20" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="23">
+        <v>1</v>
+      </c>
+      <c r="H20" s="48"/>
+    </row>
+    <row r="21" ht="17.75" spans="1:8">
+      <c r="A21" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="40">
+        <v>0.6</v>
+      </c>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="50"/>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="16"/>
+      <c r="B61" s="16"/>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="16"/>
+      <c r="B117" s="16"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C7" r:id="rId1" display="2029. 石子游戏 IX" tooltip="https://leetcode-cn.com/problems/stone-game-ix/"/>
+    <hyperlink ref="A4" r:id="rId2" display="Week261"/>
+    <hyperlink ref="C5" r:id="rId3" display="2027. 转换字符串的最少操作次数" tooltip="https://leetcode-cn.com/problems/minimum-moves-to-convert-string/"/>
+    <hyperlink ref="C6" r:id="rId4" display="2028. 找出缺失的观测数据" tooltip="https://leetcode-cn.com/problems/find-missing-observations/"/>
+    <hyperlink ref="C8" r:id="rId5" display="2030. 含特定字母的最小子序列" tooltip="https://leetcode-cn.com/problems/smallest-k-length-subsequence-with-occurrences-of-a-letter/"/>
+    <hyperlink ref="C21" r:id="rId6" display="2045. 到达目的地的第二短时间" tooltip="https://leetcode-cn.com/problems/second-minimum-time-to-reach-destination/"/>
+    <hyperlink ref="C19" r:id="rId7" display="2043. 简易银行系统" tooltip="https://leetcode-cn.com/problems/simple-bank-system/"/>
+    <hyperlink ref="C18" r:id="rId8" display="2042. 检查句子中的数字是否递增" tooltip="https://leetcode-cn.com/problems/check-if-numbers-are-ascending-in-a-sentence/"/>
+  </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
@@ -1156,17 +1797,226 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="B6:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.8"/>
   <cols>
-    <col min="1" max="256" width="11" customWidth="1"/>
+    <col min="1" max="3" width="11" style="14" customWidth="1"/>
+    <col min="4" max="4" width="10.4230769230769" style="14" customWidth="1"/>
+    <col min="5" max="256" width="11" style="14" customWidth="1"/>
+    <col min="257" max="16384" width="10" style="14"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="6" spans="2:12">
+      <c r="B6" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="14">
+        <v>20</v>
+      </c>
+      <c r="D6" s="14">
+        <v>3</v>
+      </c>
+      <c r="E6" s="14">
+        <v>20</v>
+      </c>
+      <c r="F6" s="14">
+        <v>17</v>
+      </c>
+      <c r="G6" s="14">
+        <v>2</v>
+      </c>
+      <c r="H6" s="14">
+        <v>12</v>
+      </c>
+      <c r="I6" s="14">
+        <v>15</v>
+      </c>
+      <c r="J6" s="14">
+        <v>17</v>
+      </c>
+      <c r="K6" s="14">
+        <v>4</v>
+      </c>
+      <c r="L6" s="14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="3:12">
+      <c r="C7" s="14">
+        <v>20</v>
+      </c>
+      <c r="D7" s="14">
+        <v>10</v>
+      </c>
+      <c r="E7" s="14">
+        <v>13</v>
+      </c>
+      <c r="F7" s="14">
+        <v>14</v>
+      </c>
+      <c r="G7" s="14">
+        <v>15</v>
+      </c>
+      <c r="H7" s="14">
+        <v>5</v>
+      </c>
+      <c r="I7" s="14">
+        <v>2</v>
+      </c>
+      <c r="J7" s="14">
+        <v>3</v>
+      </c>
+      <c r="K7" s="14">
+        <v>14</v>
+      </c>
+      <c r="L7" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="B9" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="14">
+        <v>20</v>
+      </c>
+      <c r="D9" s="14">
+        <v>23</v>
+      </c>
+      <c r="E9" s="14">
+        <v>43</v>
+      </c>
+      <c r="F9" s="14">
+        <v>60</v>
+      </c>
+      <c r="G9" s="14">
+        <v>62</v>
+      </c>
+      <c r="H9" s="14">
+        <v>74</v>
+      </c>
+      <c r="I9" s="14">
+        <v>89</v>
+      </c>
+      <c r="J9" s="14">
+        <v>106</v>
+      </c>
+      <c r="K9" s="14">
+        <v>110</v>
+      </c>
+      <c r="L9" s="14">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="3:12">
+      <c r="C10" s="14">
+        <v>40</v>
+      </c>
+      <c r="D10" s="14">
+        <v>50</v>
+      </c>
+      <c r="E10" s="14">
+        <v>63</v>
+      </c>
+      <c r="F10" s="14">
+        <v>77</v>
+      </c>
+      <c r="G10" s="14">
+        <v>92</v>
+      </c>
+      <c r="H10" s="14">
+        <v>97</v>
+      </c>
+      <c r="I10" s="14">
+        <v>99</v>
+      </c>
+      <c r="J10" s="14">
+        <v>109</v>
+      </c>
+      <c r="K10" s="14">
+        <v>124</v>
+      </c>
+      <c r="L10" s="14">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12">
+      <c r="B13" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="14">
+        <v>0</v>
+      </c>
+      <c r="D13" s="14">
+        <v>0</v>
+      </c>
+      <c r="E13" s="14">
+        <v>0</v>
+      </c>
+      <c r="F13" s="14">
+        <v>0</v>
+      </c>
+      <c r="G13" s="14">
+        <v>0</v>
+      </c>
+      <c r="H13" s="14">
+        <v>0</v>
+      </c>
+      <c r="I13" s="14">
+        <v>0</v>
+      </c>
+      <c r="J13" s="14">
+        <v>0</v>
+      </c>
+      <c r="K13" s="14">
+        <v>0</v>
+      </c>
+      <c r="L13" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12">
+      <c r="B14" s="15">
+        <f>SUM(C14:K14)</f>
+        <v>96</v>
+      </c>
+      <c r="C14" s="14">
+        <v>20</v>
+      </c>
+      <c r="D14" s="14">
+        <v>10</v>
+      </c>
+      <c r="E14" s="14">
+        <v>13</v>
+      </c>
+      <c r="F14" s="14">
+        <v>14</v>
+      </c>
+      <c r="G14" s="14">
+        <v>15</v>
+      </c>
+      <c r="H14" s="14">
+        <v>5</v>
+      </c>
+      <c r="I14" s="14">
+        <v>2</v>
+      </c>
+      <c r="J14" s="14">
+        <v>3</v>
+      </c>
+      <c r="K14" s="14">
+        <v>14</v>
+      </c>
+      <c r="L14" s="14">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
@@ -1177,8 +2027,8 @@
   <sheetPr/>
   <dimension ref="B3:N78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="C71" sqref="C70:C71"/>
+    <sheetView topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="R70" sqref="R70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.73076923076923" defaultRowHeight="35" customHeight="1"/>
@@ -1276,7 +2126,7 @@
       </c>
       <c r="C10" s="3"/>
       <c r="F10" s="1" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J10" s="6"/>
     </row>
@@ -1359,7 +2209,7 @@
       </c>
       <c r="C17" s="3"/>
       <c r="I17" s="1" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="J17" s="6"/>
     </row>
@@ -1436,7 +2286,7 @@
       <c r="B23" s="2"/>
       <c r="C23" s="3"/>
       <c r="J23" s="1" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="2:10">
@@ -1526,7 +2376,7 @@
       <c r="C31" s="3"/>
       <c r="J31" s="6"/>
       <c r="M31" s="1" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="2:13">
@@ -1600,14 +2450,14 @@
     </row>
     <row r="37" customHeight="1" spans="8:8">
       <c r="H37" s="10" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="2:13">
       <c r="B38" s="2"/>
       <c r="C38" s="3"/>
       <c r="M38" s="1" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="2:13">
@@ -1616,11 +2466,11 @@
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="1" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="J39" s="6"/>
       <c r="M39" s="1" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="2:13">
@@ -1629,7 +2479,7 @@
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="1" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="F40" s="6"/>
       <c r="G40" s="7"/>
@@ -1698,14 +2548,14 @@
     </row>
     <row r="43" customHeight="1" spans="8:8">
       <c r="H43" s="10" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="2:13">
       <c r="B44" s="2"/>
       <c r="C44" s="3"/>
       <c r="M44" s="1" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="2:13">
@@ -1714,11 +2564,11 @@
       </c>
       <c r="C45" s="3"/>
       <c r="G45" s="1" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="J45" s="6"/>
       <c r="M45" s="1" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="2:13">
@@ -1793,14 +2643,14 @@
     </row>
     <row r="49" customHeight="1" spans="8:8">
       <c r="H49" s="10" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="2:13">
       <c r="B50" s="2"/>
       <c r="C50" s="3"/>
       <c r="M50" s="1" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="2:13">
@@ -1809,14 +2659,14 @@
       </c>
       <c r="C51" s="3"/>
       <c r="F51" s="1" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="J51" s="6"/>
       <c r="M51" s="1" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="2:13">
@@ -1891,14 +2741,14 @@
     </row>
     <row r="55" customHeight="1" spans="8:8">
       <c r="H55" s="10" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="2:13">
       <c r="B56" s="2"/>
       <c r="C56" s="3"/>
       <c r="M56" s="1" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="2:13">
@@ -1907,14 +2757,14 @@
       </c>
       <c r="C57" s="3"/>
       <c r="F57" s="1" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="J57" s="6"/>
       <c r="M57" s="1" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="2:13">
@@ -1989,20 +2839,20 @@
     </row>
     <row r="61" customHeight="1" spans="8:10">
       <c r="H61" s="10" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="2:13">
       <c r="B62" s="2"/>
       <c r="C62" s="3"/>
       <c r="J62" s="1" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="2:13">
@@ -2012,7 +2862,7 @@
       <c r="C63" s="3"/>
       <c r="J63" s="6"/>
       <c r="M63" s="1" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="2:13">
@@ -2087,20 +2937,20 @@
     </row>
     <row r="67" customHeight="1" spans="8:10">
       <c r="H67" s="10" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
     </row>
     <row r="68" customHeight="1" spans="2:13">
       <c r="B68" s="2"/>
       <c r="C68" s="3"/>
       <c r="J68" s="1" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="69" customHeight="1" spans="2:12">
@@ -2111,7 +2961,7 @@
       <c r="J69" s="6"/>
       <c r="K69" s="13"/>
       <c r="L69" s="1" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
     </row>
     <row r="70" customHeight="1" spans="2:13">
@@ -2186,20 +3036,20 @@
     </row>
     <row r="73" customHeight="1" spans="8:10">
       <c r="H73" s="10" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
     </row>
     <row r="74" customHeight="1" spans="2:11">
       <c r="B74" s="2"/>
       <c r="C74" s="3"/>
       <c r="J74" s="1" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="75" customHeight="1" spans="2:12">

--- a/_book/src/main/leetcode_manuscripts/draw_io/leetcode_graph.xlsx
+++ b/_book/src/main/leetcode_manuscripts/draw_io/leetcode_graph.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16700"/>
+    <workbookView windowHeight="16560"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -16,53 +16,90 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49">
+  <si>
+    <t>Week298</t>
+  </si>
+  <si>
+    <t>难度</t>
+  </si>
+  <si>
+    <t>链接</t>
+  </si>
+  <si>
+    <t>完成度</t>
+  </si>
+  <si>
+    <t>分析度</t>
+  </si>
+  <si>
+    <t>标签</t>
+  </si>
+  <si>
+    <t>关联题</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>Easy</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6072. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF262626"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>转角路径的乘积中最多能有几个尾随零</t>
+    </r>
+  </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>Hard</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6073. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF262626"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>相邻字符不同的最长路径</t>
+    </r>
+  </si>
   <si>
     <t>Week261</t>
   </si>
   <si>
-    <t>难度</t>
-  </si>
-  <si>
-    <t>链接</t>
-  </si>
-  <si>
-    <t>完成度</t>
-  </si>
-  <si>
-    <t>分析度</t>
-  </si>
-  <si>
-    <t>标签</t>
-  </si>
-  <si>
-    <t>关联题</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>T1</t>
-  </si>
-  <si>
-    <t>Easy</t>
-  </si>
-  <si>
     <t>2027. 转换字符串的最少操作次数</t>
   </si>
   <si>
-    <t>T2</t>
-  </si>
-  <si>
-    <t>Medium</t>
-  </si>
-  <si>
     <t>2028. 找出缺失的观测数据</t>
   </si>
   <si>
-    <t>T3</t>
-  </si>
-  <si>
     <t>2029. 石子游戏 IX</t>
   </si>
   <si>
@@ -70,12 +107,6 @@
   </si>
   <si>
     <t>石子游戏数题</t>
-  </si>
-  <si>
-    <t>T4</t>
-  </si>
-  <si>
-    <t>Hard</t>
   </si>
   <si>
     <r>
@@ -218,10 +249,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -260,13 +291,13 @@
     <font>
       <sz val="14"/>
       <color rgb="FF262626"/>
-      <name val="STHeiti Light"/>
+      <name val="Helvetica Neue"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF262626"/>
-      <name val="Helvetica Neue"/>
+      <name val="STHeiti Light"/>
       <charset val="134"/>
     </font>
     <font>
@@ -277,6 +308,29 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,55 +351,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -357,32 +366,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -398,7 +383,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -411,18 +419,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -500,163 +531,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -783,7 +814,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -792,22 +823,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -817,6 +833,17 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -851,17 +878,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -876,157 +892,172 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="36" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1078,6 +1109,12 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1093,7 +1130,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1108,7 +1145,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1117,35 +1154,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1153,34 +1163,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1502,10 +1491,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:S117"/>
+  <dimension ref="A1:S127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB11" sqref="AB11"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.8"/>
@@ -1523,271 +1512,355 @@
       <c r="A1" s="16"/>
       <c r="B1" s="16"/>
     </row>
-    <row r="3" ht="15.55"/>
-    <row r="4" spans="1:8">
-      <c r="A4" s="17" t="s">
+    <row r="2" spans="1:2">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="19" t="s">
+      <c r="B7" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D7" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F7" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G7" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="41" t="s">
+      <c r="H7" s="14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" ht="15" spans="1:19">
-      <c r="A5" s="20" t="s">
+    <row r="8" spans="1:2">
+      <c r="A8" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B8" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="22" t="s">
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="23">
-        <v>1</v>
-      </c>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="43"/>
-      <c r="L5" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="M5" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="N5" s="14" t="s">
+      <c r="B9" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" ht="17" spans="1:3">
+      <c r="A10" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" ht="17" spans="1:3">
+      <c r="A11" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="O5" s="14" t="s">
+      <c r="D14" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="P5" s="14" t="s">
+      <c r="E14" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="Q5" s="14" t="s">
+      <c r="F14" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="R5" s="14" t="s">
+      <c r="G14" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="S5" s="14" t="s">
+      <c r="H14" s="34" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" ht="15" spans="1:13">
-      <c r="A6" s="20" t="s">
+    <row r="15" ht="15" spans="1:19">
+      <c r="A15" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="25">
+        <v>1</v>
+      </c>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="35"/>
+      <c r="L15" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M15" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="N15" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="O15" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="P15" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q15" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="R15" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="S15" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" ht="15" spans="1:13">
+      <c r="A16" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="C16" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="25">
+        <v>1</v>
+      </c>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="35"/>
+      <c r="L16" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="M16" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" ht="15" spans="1:13">
+      <c r="A17" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="23">
-        <v>1</v>
-      </c>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="43"/>
-      <c r="L6" s="33" t="s">
+      <c r="B17" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="26">
+        <v>1</v>
+      </c>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="35"/>
+      <c r="L17" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="M17" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" ht="60.75" spans="1:13">
+      <c r="A18" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="30">
+        <v>0.7</v>
+      </c>
+      <c r="E18" s="30">
+        <v>0.4</v>
+      </c>
+      <c r="F18" s="28"/>
+      <c r="G18" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" s="37"/>
+      <c r="L18" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="M18" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="12:13">
+      <c r="L19" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="M19" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="H27" s="34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" ht="17" spans="1:8">
+      <c r="A28" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="33" t="s">
+      <c r="B28" s="14" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" ht="15" spans="1:13">
-      <c r="A7" s="20" t="s">
+      <c r="C28" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="25">
+        <v>1</v>
+      </c>
+      <c r="H28" s="35"/>
+    </row>
+    <row r="29" ht="17" spans="1:8">
+      <c r="A29" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="25">
+        <v>1</v>
+      </c>
+      <c r="H29" s="35"/>
+    </row>
+    <row r="30" ht="17" spans="1:8">
+      <c r="A30" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" s="25">
+        <v>1</v>
+      </c>
+      <c r="H30" s="35"/>
+    </row>
+    <row r="31" ht="17.75" spans="1:8">
+      <c r="A31" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="22" t="s">
+      <c r="B31" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="24">
-        <v>1</v>
-      </c>
-      <c r="E7" s="42"/>
-      <c r="F7" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="43"/>
-      <c r="L7" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="M7" s="33" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" ht="60.75" spans="1:13">
-      <c r="A8" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="28">
-        <v>0.7</v>
-      </c>
-      <c r="E8" s="28">
-        <v>0.4</v>
-      </c>
-      <c r="F8" s="44"/>
-      <c r="G8" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="46"/>
-      <c r="L8" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="M8" s="33" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="12:13">
-      <c r="L9" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="M9" s="33" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" ht="15.55"/>
-    <row r="17" spans="1:8">
-      <c r="A17" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="H17" s="47" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" ht="17" spans="1:8">
-      <c r="A18" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="23">
-        <v>1</v>
-      </c>
-      <c r="H18" s="48"/>
-    </row>
-    <row r="19" ht="17" spans="1:8">
-      <c r="A19" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="23">
-        <v>1</v>
-      </c>
-      <c r="H19" s="48"/>
-    </row>
-    <row r="20" ht="17" spans="1:8">
-      <c r="A20" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="23">
-        <v>1</v>
-      </c>
-      <c r="H20" s="48"/>
-    </row>
-    <row r="21" ht="17.75" spans="1:8">
-      <c r="A21" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="40">
+      <c r="C31" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="33">
         <v>0.6</v>
       </c>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="50"/>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="16"/>
-      <c r="B61" s="16"/>
-    </row>
-    <row r="117" spans="1:2">
-      <c r="A117" s="16"/>
-      <c r="B117" s="16"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="37"/>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="16"/>
+      <c r="B71" s="16"/>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="16"/>
+      <c r="B127" s="16"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C7" r:id="rId1" display="2029. 石子游戏 IX" tooltip="https://leetcode-cn.com/problems/stone-game-ix/"/>
-    <hyperlink ref="A4" r:id="rId2" display="Week261"/>
-    <hyperlink ref="C5" r:id="rId3" display="2027. 转换字符串的最少操作次数" tooltip="https://leetcode-cn.com/problems/minimum-moves-to-convert-string/"/>
-    <hyperlink ref="C6" r:id="rId4" display="2028. 找出缺失的观测数据" tooltip="https://leetcode-cn.com/problems/find-missing-observations/"/>
-    <hyperlink ref="C8" r:id="rId5" display="2030. 含特定字母的最小子序列" tooltip="https://leetcode-cn.com/problems/smallest-k-length-subsequence-with-occurrences-of-a-letter/"/>
-    <hyperlink ref="C21" r:id="rId6" display="2045. 到达目的地的第二短时间" tooltip="https://leetcode-cn.com/problems/second-minimum-time-to-reach-destination/"/>
-    <hyperlink ref="C19" r:id="rId7" display="2043. 简易银行系统" tooltip="https://leetcode-cn.com/problems/simple-bank-system/"/>
-    <hyperlink ref="C18" r:id="rId8" display="2042. 检查句子中的数字是否递增" tooltip="https://leetcode-cn.com/problems/check-if-numbers-are-ascending-in-a-sentence/"/>
+    <hyperlink ref="C17" r:id="rId1" display="2029. 石子游戏 IX" tooltip="https://leetcode-cn.com/problems/stone-game-ix/"/>
+    <hyperlink ref="A14" r:id="rId2" display="Week261"/>
+    <hyperlink ref="C15" r:id="rId3" display="2027. 转换字符串的最少操作次数" tooltip="https://leetcode-cn.com/problems/minimum-moves-to-convert-string/"/>
+    <hyperlink ref="C16" r:id="rId4" display="2028. 找出缺失的观测数据" tooltip="https://leetcode-cn.com/problems/find-missing-observations/"/>
+    <hyperlink ref="C18" r:id="rId5" display="2030. 含特定字母的最小子序列" tooltip="https://leetcode-cn.com/problems/smallest-k-length-subsequence-with-occurrences-of-a-letter/"/>
+    <hyperlink ref="C31" r:id="rId6" display="2045. 到达目的地的第二短时间" tooltip="https://leetcode-cn.com/problems/second-minimum-time-to-reach-destination/"/>
+    <hyperlink ref="C29" r:id="rId7" display="2043. 简易银行系统" tooltip="https://leetcode-cn.com/problems/simple-bank-system/"/>
+    <hyperlink ref="C28" r:id="rId8" display="2042. 检查句子中的数字是否递增" tooltip="https://leetcode-cn.com/problems/check-if-numbers-are-ascending-in-a-sentence/"/>
+    <hyperlink ref="C10" r:id="rId9" display="6072. 转角路径的乘积中最多能有几个尾随零" tooltip="https://leetcode-cn.com/problems/maximum-trailing-zeros-in-a-cornered-path/"/>
+    <hyperlink ref="C11" r:id="rId10" display="6073. 相邻字符不同的最长路径" tooltip="https://leetcode-cn.com/problems/longest-path-with-different-adjacent-characters/"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1813,7 +1886,7 @@
   <sheetData>
     <row r="6" spans="2:12">
       <c r="B6" s="15" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C6" s="14">
         <v>20</v>
@@ -1880,7 +1953,7 @@
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="15" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C9" s="14">
         <v>20</v>
@@ -1947,7 +2020,7 @@
     </row>
     <row r="13" spans="2:12">
       <c r="B13" s="14" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C13" s="14">
         <v>0</v>
@@ -2126,7 +2199,7 @@
       </c>
       <c r="C10" s="3"/>
       <c r="F10" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J10" s="6"/>
     </row>
@@ -2209,7 +2282,7 @@
       </c>
       <c r="C17" s="3"/>
       <c r="I17" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J17" s="6"/>
     </row>
@@ -2286,7 +2359,7 @@
       <c r="B23" s="2"/>
       <c r="C23" s="3"/>
       <c r="J23" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="2:10">
@@ -2376,7 +2449,7 @@
       <c r="C31" s="3"/>
       <c r="J31" s="6"/>
       <c r="M31" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="2:13">
@@ -2450,14 +2523,14 @@
     </row>
     <row r="37" customHeight="1" spans="8:8">
       <c r="H37" s="10" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="2:13">
       <c r="B38" s="2"/>
       <c r="C38" s="3"/>
       <c r="M38" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="2:13">
@@ -2466,11 +2539,11 @@
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="J39" s="6"/>
       <c r="M39" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="2:13">
@@ -2479,7 +2552,7 @@
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F40" s="6"/>
       <c r="G40" s="7"/>
@@ -2548,14 +2621,14 @@
     </row>
     <row r="43" customHeight="1" spans="8:8">
       <c r="H43" s="10" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="2:13">
       <c r="B44" s="2"/>
       <c r="C44" s="3"/>
       <c r="M44" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="2:13">
@@ -2564,11 +2637,11 @@
       </c>
       <c r="C45" s="3"/>
       <c r="G45" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J45" s="6"/>
       <c r="M45" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="2:13">
@@ -2643,14 +2716,14 @@
     </row>
     <row r="49" customHeight="1" spans="8:8">
       <c r="H49" s="10" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="2:13">
       <c r="B50" s="2"/>
       <c r="C50" s="3"/>
       <c r="M50" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="2:13">
@@ -2659,14 +2732,14 @@
       </c>
       <c r="C51" s="3"/>
       <c r="F51" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J51" s="6"/>
       <c r="M51" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="2:13">
@@ -2741,14 +2814,14 @@
     </row>
     <row r="55" customHeight="1" spans="8:8">
       <c r="H55" s="10" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="2:13">
       <c r="B56" s="2"/>
       <c r="C56" s="3"/>
       <c r="M56" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="2:13">
@@ -2757,14 +2830,14 @@
       </c>
       <c r="C57" s="3"/>
       <c r="F57" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J57" s="6"/>
       <c r="M57" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="2:13">
@@ -2839,20 +2912,20 @@
     </row>
     <row r="61" customHeight="1" spans="8:10">
       <c r="H61" s="10" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="2:13">
       <c r="B62" s="2"/>
       <c r="C62" s="3"/>
       <c r="J62" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M62" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="M62" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="2:13">
@@ -2862,7 +2935,7 @@
       <c r="C63" s="3"/>
       <c r="J63" s="6"/>
       <c r="M63" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="2:13">
@@ -2937,20 +3010,20 @@
     </row>
     <row r="67" customHeight="1" spans="8:10">
       <c r="H67" s="10" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="68" customHeight="1" spans="2:13">
       <c r="B68" s="2"/>
       <c r="C68" s="3"/>
       <c r="J68" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M68" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="M68" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="69" customHeight="1" spans="2:12">
@@ -2961,7 +3034,7 @@
       <c r="J69" s="6"/>
       <c r="K69" s="13"/>
       <c r="L69" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="70" customHeight="1" spans="2:13">
@@ -3036,20 +3109,20 @@
     </row>
     <row r="73" customHeight="1" spans="8:10">
       <c r="H73" s="10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="74" customHeight="1" spans="2:11">
       <c r="B74" s="2"/>
       <c r="C74" s="3"/>
       <c r="J74" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="75" customHeight="1" spans="2:12">

--- a/_book/src/main/leetcode_manuscripts/draw_io/leetcode_graph.xlsx
+++ b/_book/src/main/leetcode_manuscripts/draw_io/leetcode_graph.xlsx
@@ -16,48 +16,63 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
+  <si>
+    <t>BiWeek76</t>
+  </si>
+  <si>
+    <t>难度</t>
+  </si>
+  <si>
+    <t>链接</t>
+  </si>
+  <si>
+    <t>完成度</t>
+  </si>
+  <si>
+    <t>分析度</t>
+  </si>
+  <si>
+    <t>标签</t>
+  </si>
+  <si>
+    <t>关联题</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>Easy</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>Hard</t>
+  </si>
   <si>
     <t>Week298</t>
   </si>
   <si>
-    <t>难度</t>
-  </si>
-  <si>
-    <t>链接</t>
-  </si>
-  <si>
-    <t>完成度</t>
-  </si>
-  <si>
-    <t>分析度</t>
-  </si>
-  <si>
-    <t>标签</t>
-  </si>
-  <si>
-    <t>关联题</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>T1</t>
-  </si>
-  <si>
-    <t>Easy</t>
-  </si>
-  <si>
-    <t>T2</t>
-  </si>
-  <si>
-    <t>Medium</t>
-  </si>
-  <si>
-    <t>T3</t>
-  </si>
-  <si>
     <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF262626"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">6072. </t>
     </r>
     <r>
@@ -71,13 +86,13 @@
     </r>
   </si>
   <si>
-    <t>T4</t>
-  </si>
-  <si>
-    <t>Hard</t>
-  </si>
-  <si>
     <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF262626"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">6073. </t>
     </r>
     <r>
@@ -110,6 +125,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF262626"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">2030. </t>
     </r>
     <r>
@@ -133,6 +154,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF262626"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">2042. </t>
     </r>
     <r>
@@ -147,6 +174,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF262626"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">2043. </t>
     </r>
     <r>
@@ -161,6 +194,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
       <t>2044. </t>
     </r>
     <r>
@@ -174,6 +212,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF262626"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">2045. </t>
     </r>
     <r>
@@ -251,8 +295,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -283,6 +327,14 @@
     </font>
     <font>
       <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="14"/>
       <color rgb="FF800080"/>
       <name val="STHeiti Light"/>
@@ -307,30 +359,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -344,13 +380,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -358,39 +387,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -405,6 +411,14 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
@@ -412,8 +426,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -427,19 +450,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -451,9 +465,39 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -531,163 +575,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -813,6 +857,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -824,41 +877,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -879,16 +897,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -907,157 +936,172 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="36" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="18" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1109,16 +1153,10 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1127,10 +1165,37 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1145,7 +1210,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1154,10 +1219,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1491,10 +1565,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:S127"/>
+  <dimension ref="A1:S137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.8"/>
@@ -1532,335 +1606,426 @@
       <c r="A6" s="16"/>
       <c r="B6" s="16"/>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="14" t="s">
+    <row r="7" spans="1:2">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+    </row>
+    <row r="9" ht="15.55" spans="1:2">
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="14" t="s">
+      <c r="B10" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D10" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E10" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F10" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G10" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H10" s="41" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="14" t="s">
+    <row r="11" spans="1:8">
+      <c r="A11" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B11" s="14" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="14" t="s">
+      <c r="H11" s="42"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B12" s="14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" ht="17" spans="1:3">
-      <c r="A10" s="14" t="s">
+      <c r="H12" s="42"/>
+    </row>
+    <row r="13" ht="16.8" spans="1:8">
+      <c r="A13" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B13" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C13" s="21"/>
+      <c r="H13" s="42"/>
+    </row>
+    <row r="14" ht="17.55" spans="1:8">
+      <c r="A14" s="22" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" ht="17" spans="1:3">
-      <c r="A11" s="14" t="s">
+      <c r="B14" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="C14" s="24"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="43"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="B17" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" ht="17" spans="1:3">
+      <c r="A20" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="19" t="s">
+    <row r="21" ht="17" spans="1:3">
+      <c r="A21" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="21" t="s">
+    </row>
+    <row r="23" ht="15.55"/>
+    <row r="24" spans="1:8">
+      <c r="A24" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D24" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E24" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="21" t="s">
+      <c r="F24" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="21" t="s">
+      <c r="G24" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="H14" s="34" t="s">
+      <c r="H24" s="44" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" ht="15" spans="1:19">
-      <c r="A15" s="22" t="s">
+    <row r="25" ht="15" spans="1:19">
+      <c r="A25" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B25" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C25" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="32">
+        <v>1</v>
+      </c>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="45"/>
+      <c r="L25" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="25">
-        <v>1</v>
-      </c>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="35"/>
-      <c r="L15" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="M15" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="N15" s="14" t="s">
+      <c r="M25" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="N25" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="O15" s="14" t="s">
+      <c r="O25" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="P15" s="14" t="s">
+      <c r="P25" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="Q15" s="14" t="s">
+      <c r="Q25" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="R15" s="14" t="s">
+      <c r="R25" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="S15" s="14" t="s">
+      <c r="S25" s="14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" ht="15" spans="1:13">
-      <c r="A16" s="22" t="s">
+    <row r="26" ht="15" spans="1:13">
+      <c r="A26" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B26" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="25">
-        <v>1</v>
-      </c>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="35"/>
-      <c r="L16" s="14" t="s">
+      <c r="C26" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="32">
+        <v>1</v>
+      </c>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="45"/>
+      <c r="L26" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="M16" s="14" t="s">
+      <c r="M26" s="14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" ht="15" spans="1:13">
-      <c r="A17" s="22" t="s">
+    <row r="27" ht="15" spans="1:13">
+      <c r="A27" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B27" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="26">
-        <v>1</v>
-      </c>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23" t="s">
+      <c r="C27" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="23" t="s">
+      <c r="D27" s="33">
+        <v>1</v>
+      </c>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="H17" s="35"/>
-      <c r="L17" s="14" t="s">
+      <c r="G27" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" s="45"/>
+      <c r="L27" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="M17" s="14" t="s">
+      <c r="M27" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" ht="60.75" spans="1:13">
-      <c r="A18" s="27" t="s">
+    <row r="28" ht="60.75" spans="1:13">
+      <c r="A28" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="30">
+      <c r="C28" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="37">
         <v>0.7</v>
       </c>
-      <c r="E18" s="30">
+      <c r="E28" s="37">
         <v>0.4</v>
       </c>
-      <c r="F18" s="28"/>
-      <c r="G18" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="H18" s="37"/>
-      <c r="L18" s="14" t="s">
+      <c r="F28" s="35"/>
+      <c r="G28" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="H28" s="47"/>
+      <c r="L28" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="M18" s="14" t="s">
+      <c r="M28" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="12:13">
-      <c r="L19" s="14" t="s">
+    <row r="29" spans="12:13">
+      <c r="L29" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="M29" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="M19" s="14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="21" t="s">
+    </row>
+    <row r="36" ht="15.55"/>
+    <row r="37" spans="1:8">
+      <c r="A37" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="B37" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D27" s="21" t="s">
+      <c r="D37" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E27" s="21" t="s">
+      <c r="E37" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F27" s="21" t="s">
+      <c r="F37" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="G27" s="21" t="s">
+      <c r="G37" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="H27" s="34" t="s">
+      <c r="H37" s="44" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="28" ht="17" spans="1:8">
-      <c r="A28" s="22" t="s">
+    <row r="38" ht="17" spans="1:8">
+      <c r="A38" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B38" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" s="25">
-        <v>1</v>
-      </c>
-      <c r="H28" s="35"/>
-    </row>
-    <row r="29" ht="17" spans="1:8">
-      <c r="A29" s="22" t="s">
+      <c r="C38" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38" s="32">
+        <v>1</v>
+      </c>
+      <c r="H38" s="45"/>
+    </row>
+    <row r="39" ht="17" spans="1:8">
+      <c r="A39" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B39" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" s="25">
-        <v>1</v>
-      </c>
-      <c r="H29" s="35"/>
-    </row>
-    <row r="30" ht="17" spans="1:8">
-      <c r="A30" s="22" t="s">
+      <c r="C39" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39" s="32">
+        <v>1</v>
+      </c>
+      <c r="H39" s="45"/>
+    </row>
+    <row r="40" ht="17" spans="1:8">
+      <c r="A40" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B40" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="D30" s="25">
-        <v>1</v>
-      </c>
-      <c r="H30" s="35"/>
-    </row>
-    <row r="31" ht="17.75" spans="1:8">
-      <c r="A31" s="27" t="s">
+      <c r="C40" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40" s="32">
+        <v>1</v>
+      </c>
+      <c r="H40" s="45"/>
+    </row>
+    <row r="41" ht="17.75" spans="1:8">
+      <c r="A41" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="D31" s="33">
+      <c r="C41" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41" s="40">
         <v>0.6</v>
       </c>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="37"/>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="16"/>
-      <c r="B71" s="16"/>
-    </row>
-    <row r="127" spans="1:2">
-      <c r="A127" s="16"/>
-      <c r="B127" s="16"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="47"/>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="16"/>
+      <c r="B81" s="16"/>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="16"/>
+      <c r="B137" s="16"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C17" r:id="rId1" display="2029. 石子游戏 IX" tooltip="https://leetcode-cn.com/problems/stone-game-ix/"/>
-    <hyperlink ref="A14" r:id="rId2" display="Week261"/>
-    <hyperlink ref="C15" r:id="rId3" display="2027. 转换字符串的最少操作次数" tooltip="https://leetcode-cn.com/problems/minimum-moves-to-convert-string/"/>
-    <hyperlink ref="C16" r:id="rId4" display="2028. 找出缺失的观测数据" tooltip="https://leetcode-cn.com/problems/find-missing-observations/"/>
-    <hyperlink ref="C18" r:id="rId5" display="2030. 含特定字母的最小子序列" tooltip="https://leetcode-cn.com/problems/smallest-k-length-subsequence-with-occurrences-of-a-letter/"/>
-    <hyperlink ref="C31" r:id="rId6" display="2045. 到达目的地的第二短时间" tooltip="https://leetcode-cn.com/problems/second-minimum-time-to-reach-destination/"/>
-    <hyperlink ref="C29" r:id="rId7" display="2043. 简易银行系统" tooltip="https://leetcode-cn.com/problems/simple-bank-system/"/>
-    <hyperlink ref="C28" r:id="rId8" display="2042. 检查句子中的数字是否递增" tooltip="https://leetcode-cn.com/problems/check-if-numbers-are-ascending-in-a-sentence/"/>
-    <hyperlink ref="C10" r:id="rId9" display="6072. 转角路径的乘积中最多能有几个尾随零" tooltip="https://leetcode-cn.com/problems/maximum-trailing-zeros-in-a-cornered-path/"/>
-    <hyperlink ref="C11" r:id="rId10" display="6073. 相邻字符不同的最长路径" tooltip="https://leetcode-cn.com/problems/longest-path-with-different-adjacent-characters/"/>
+    <hyperlink ref="C27" r:id="rId1" display="2029. 石子游戏 IX" tooltip="https://leetcode-cn.com/problems/stone-game-ix/"/>
+    <hyperlink ref="A24" r:id="rId2" display="Week261"/>
+    <hyperlink ref="C25" r:id="rId3" display="2027. 转换字符串的最少操作次数" tooltip="https://leetcode-cn.com/problems/minimum-moves-to-convert-string/"/>
+    <hyperlink ref="C26" r:id="rId4" display="2028. 找出缺失的观测数据" tooltip="https://leetcode-cn.com/problems/find-missing-observations/"/>
+    <hyperlink ref="C28" r:id="rId5" display="2030. 含特定字母的最小子序列" tooltip="https://leetcode-cn.com/problems/smallest-k-length-subsequence-with-occurrences-of-a-letter/"/>
+    <hyperlink ref="C41" r:id="rId6" display="2045. 到达目的地的第二短时间" tooltip="https://leetcode-cn.com/problems/second-minimum-time-to-reach-destination/"/>
+    <hyperlink ref="C39" r:id="rId7" display="2043. 简易银行系统" tooltip="https://leetcode-cn.com/problems/simple-bank-system/"/>
+    <hyperlink ref="C38" r:id="rId8" display="2042. 检查句子中的数字是否递增" tooltip="https://leetcode-cn.com/problems/check-if-numbers-are-ascending-in-a-sentence/"/>
+    <hyperlink ref="C20" r:id="rId9" display="6072. 转角路径的乘积中最多能有几个尾随零" tooltip="https://leetcode-cn.com/problems/maximum-trailing-zeros-in-a-cornered-path/"/>
+    <hyperlink ref="C21" r:id="rId10" display="6073. 相邻字符不同的最长路径" tooltip="https://leetcode-cn.com/problems/longest-path-with-different-adjacent-characters/"/>
+    <hyperlink ref="A10" r:id="rId11" display="BiWeek76"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1886,7 +2051,7 @@
   <sheetData>
     <row r="6" spans="2:12">
       <c r="B6" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C6" s="14">
         <v>20</v>
@@ -1953,7 +2118,7 @@
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9" s="14">
         <v>20</v>
@@ -2020,7 +2185,7 @@
     </row>
     <row r="13" spans="2:12">
       <c r="B13" s="14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C13" s="14">
         <v>0</v>
@@ -2199,7 +2364,7 @@
       </c>
       <c r="C10" s="3"/>
       <c r="F10" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J10" s="6"/>
     </row>
@@ -2282,7 +2447,7 @@
       </c>
       <c r="C17" s="3"/>
       <c r="I17" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J17" s="6"/>
     </row>
@@ -2359,7 +2524,7 @@
       <c r="B23" s="2"/>
       <c r="C23" s="3"/>
       <c r="J23" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="2:10">
@@ -2449,7 +2614,7 @@
       <c r="C31" s="3"/>
       <c r="J31" s="6"/>
       <c r="M31" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="2:13">
@@ -2523,14 +2688,14 @@
     </row>
     <row r="37" customHeight="1" spans="8:8">
       <c r="H37" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="2:13">
       <c r="B38" s="2"/>
       <c r="C38" s="3"/>
       <c r="M38" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="2:13">
@@ -2539,11 +2704,11 @@
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J39" s="6"/>
       <c r="M39" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="2:13">
@@ -2552,7 +2717,7 @@
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F40" s="6"/>
       <c r="G40" s="7"/>
@@ -2621,14 +2786,14 @@
     </row>
     <row r="43" customHeight="1" spans="8:8">
       <c r="H43" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="2:13">
       <c r="B44" s="2"/>
       <c r="C44" s="3"/>
       <c r="M44" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="2:13">
@@ -2637,11 +2802,11 @@
       </c>
       <c r="C45" s="3"/>
       <c r="G45" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J45" s="6"/>
       <c r="M45" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="2:13">
@@ -2716,14 +2881,14 @@
     </row>
     <row r="49" customHeight="1" spans="8:8">
       <c r="H49" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="2:13">
       <c r="B50" s="2"/>
       <c r="C50" s="3"/>
       <c r="M50" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="2:13">
@@ -2732,14 +2897,14 @@
       </c>
       <c r="C51" s="3"/>
       <c r="F51" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J51" s="6"/>
       <c r="M51" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="2:13">
@@ -2814,14 +2979,14 @@
     </row>
     <row r="55" customHeight="1" spans="8:8">
       <c r="H55" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="2:13">
       <c r="B56" s="2"/>
       <c r="C56" s="3"/>
       <c r="M56" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="2:13">
@@ -2830,14 +2995,14 @@
       </c>
       <c r="C57" s="3"/>
       <c r="F57" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J57" s="6"/>
       <c r="M57" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="2:13">
@@ -2912,20 +3077,20 @@
     </row>
     <row r="61" customHeight="1" spans="8:10">
       <c r="H61" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="2:13">
       <c r="B62" s="2"/>
       <c r="C62" s="3"/>
       <c r="J62" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="2:13">
@@ -2935,7 +3100,7 @@
       <c r="C63" s="3"/>
       <c r="J63" s="6"/>
       <c r="M63" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="2:13">
@@ -3010,20 +3175,20 @@
     </row>
     <row r="67" customHeight="1" spans="8:10">
       <c r="H67" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="68" customHeight="1" spans="2:13">
       <c r="B68" s="2"/>
       <c r="C68" s="3"/>
       <c r="J68" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="69" customHeight="1" spans="2:12">
@@ -3034,7 +3199,7 @@
       <c r="J69" s="6"/>
       <c r="K69" s="13"/>
       <c r="L69" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="70" customHeight="1" spans="2:13">
@@ -3109,20 +3274,20 @@
     </row>
     <row r="73" customHeight="1" spans="8:10">
       <c r="H73" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="74" customHeight="1" spans="2:11">
       <c r="B74" s="2"/>
       <c r="C74" s="3"/>
       <c r="J74" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="75" customHeight="1" spans="2:12">

--- a/_book/src/main/leetcode_manuscripts/draw_io/leetcode_graph.xlsx
+++ b/_book/src/main/leetcode_manuscripts/draw_io/leetcode_graph.xlsx
@@ -4,241 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16560"/>
+    <workbookView windowWidth="16680" windowHeight="16960" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="index" sheetId="1" r:id="rId1"/>
-    <sheet name="dp" sheetId="2" r:id="rId2"/>
-    <sheet name="graph" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
-  <si>
-    <t>BiWeek76</t>
-  </si>
-  <si>
-    <t>难度</t>
-  </si>
-  <si>
-    <t>链接</t>
-  </si>
-  <si>
-    <t>完成度</t>
-  </si>
-  <si>
-    <t>分析度</t>
-  </si>
-  <si>
-    <t>标签</t>
-  </si>
-  <si>
-    <t>关联题</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>T1</t>
-  </si>
-  <si>
-    <t>Easy</t>
-  </si>
-  <si>
-    <t>T2</t>
-  </si>
-  <si>
-    <t>Medium</t>
-  </si>
-  <si>
-    <t>T3</t>
-  </si>
-  <si>
-    <t>T4</t>
-  </si>
-  <si>
-    <t>Hard</t>
-  </si>
-  <si>
-    <t>Week298</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF262626"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">6072. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF262626"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>转角路径的乘积中最多能有几个尾随零</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF262626"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">6073. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF262626"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>相邻字符不同的最长路径</t>
-    </r>
-  </si>
-  <si>
-    <t>Week261</t>
-  </si>
-  <si>
-    <t>2027. 转换字符串的最少操作次数</t>
-  </si>
-  <si>
-    <t>2028. 找出缺失的观测数据</t>
-  </si>
-  <si>
-    <t>2029. 石子游戏 IX</t>
-  </si>
-  <si>
-    <t>博弈，思维，石子游戏</t>
-  </si>
-  <si>
-    <t>石子游戏数题</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF262626"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">2030. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF262626"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>含特定字母的最小子序列</t>
-    </r>
-  </si>
-  <si>
-    <t>316. 去除重复字母
-1081. 不同字符的最小子序列
-402. 移掉 K 位数字
-321. 拼接最大数</t>
-  </si>
-  <si>
-    <t>Week263</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF262626"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">2042. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF262626"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>检查句子中的数字是否递增</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF262626"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">2043. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF262626"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>简易银行系统</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2044. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>统计按位或能得到最大值的子集数目</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF262626"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">2045. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF262626"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>到达目的地的第二短时间</t>
-    </r>
-  </si>
-  <si>
-    <t>grid</t>
-  </si>
-  <si>
-    <t>dp</t>
-  </si>
-  <si>
-    <t>sum</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
   <si>
     <t>cur=3</t>
   </si>
@@ -293,12 +71,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <name val="宋体"/>
@@ -321,9 +99,108 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="14"/>
-      <name val="STHeiti Light"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -334,37 +211,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="14"/>
-      <color rgb="FF800080"/>
-      <name val="STHeiti Light"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF262626"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF262626"/>
-      <name val="STHeiti Light"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -374,16 +221,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -396,83 +236,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -485,34 +249,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF262626"/>
-      <name val="方正书宋_GBK"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <name val="方正书宋_GBK"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="38">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -563,55 +301,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -623,67 +445,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -695,18 +457,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -717,26 +467,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="20">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -774,82 +506,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -872,15 +533,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -891,21 +543,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -938,6 +575,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -956,152 +608,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1144,107 +796,8 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1565,468 +1118,36 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:S137"/>
+  <dimension ref="A1:A117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView topLeftCell="A128" workbookViewId="0">
+      <selection activeCell="E155" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.8"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="2" width="14.2307692307692" style="14" customWidth="1"/>
-    <col min="3" max="3" width="57.2692307692308" style="14" customWidth="1"/>
-    <col min="4" max="5" width="11" style="14" customWidth="1"/>
-    <col min="6" max="6" width="31.0769230769231" style="14" customWidth="1"/>
-    <col min="7" max="7" width="39.3076923076923" style="14" customWidth="1"/>
-    <col min="8" max="257" width="11" style="14" customWidth="1"/>
-    <col min="258" max="16384" width="10" style="14"/>
+    <col min="1" max="256" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="16"/>
-      <c r="B1" s="16"/>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-    </row>
-    <row r="9" ht="15.55" spans="1:2">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" s="41" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" s="42"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="42"/>
-    </row>
-    <row r="13" ht="16.8" spans="1:8">
-      <c r="A13" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="21"/>
-      <c r="H13" s="42"/>
-    </row>
-    <row r="14" ht="17.55" spans="1:8">
-      <c r="A14" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="43"/>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="H17" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" ht="17" spans="1:3">
-      <c r="A20" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" ht="17" spans="1:3">
-      <c r="A21" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" ht="15.55"/>
-    <row r="24" spans="1:8">
-      <c r="A24" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="F24" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="G24" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="H24" s="44" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" ht="15" spans="1:19">
-      <c r="A25" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="32">
-        <v>1</v>
-      </c>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="45"/>
-      <c r="L25" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="M25" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="N25" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="O25" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="P25" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q25" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="R25" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="S25" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" ht="15" spans="1:13">
-      <c r="A26" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26" s="32">
-        <v>1</v>
-      </c>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="45"/>
-      <c r="L26" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="M26" s="14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" ht="15" spans="1:13">
-      <c r="A27" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" s="33">
-        <v>1</v>
-      </c>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="H27" s="45"/>
-      <c r="L27" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="M27" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" ht="60.75" spans="1:13">
-      <c r="A28" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28" s="37">
-        <v>0.7</v>
-      </c>
-      <c r="E28" s="37">
-        <v>0.4</v>
-      </c>
-      <c r="F28" s="35"/>
-      <c r="G28" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="H28" s="47"/>
-      <c r="L28" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="M28" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="12:13">
-      <c r="L29" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="M29" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" ht="15.55"/>
-    <row r="37" spans="1:8">
-      <c r="A37" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="B37" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C37" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="D37" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="E37" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="F37" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="G37" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="H37" s="44" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" ht="17" spans="1:8">
-      <c r="A38" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="B38" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D38" s="32">
-        <v>1</v>
-      </c>
-      <c r="H38" s="45"/>
-    </row>
-    <row r="39" ht="17" spans="1:8">
-      <c r="A39" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D39" s="32">
-        <v>1</v>
-      </c>
-      <c r="H39" s="45"/>
-    </row>
-    <row r="40" ht="17" spans="1:8">
-      <c r="A40" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="B40" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C40" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="D40" s="32">
-        <v>1</v>
-      </c>
-      <c r="H40" s="45"/>
-    </row>
-    <row r="41" ht="17.75" spans="1:8">
-      <c r="A41" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="B41" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="C41" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="D41" s="40">
-        <v>0.6</v>
-      </c>
-      <c r="E41" s="35"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="47"/>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="16"/>
-      <c r="B81" s="16"/>
-    </row>
-    <row r="137" spans="1:2">
-      <c r="A137" s="16"/>
-      <c r="B137" s="16"/>
+    <row r="1" spans="1:1">
+      <c r="A1" s="14"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="14"/>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="14"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="14"/>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="14"/>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="14"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C27" r:id="rId1" display="2029. 石子游戏 IX" tooltip="https://leetcode-cn.com/problems/stone-game-ix/"/>
-    <hyperlink ref="A24" r:id="rId2" display="Week261"/>
-    <hyperlink ref="C25" r:id="rId3" display="2027. 转换字符串的最少操作次数" tooltip="https://leetcode-cn.com/problems/minimum-moves-to-convert-string/"/>
-    <hyperlink ref="C26" r:id="rId4" display="2028. 找出缺失的观测数据" tooltip="https://leetcode-cn.com/problems/find-missing-observations/"/>
-    <hyperlink ref="C28" r:id="rId5" display="2030. 含特定字母的最小子序列" tooltip="https://leetcode-cn.com/problems/smallest-k-length-subsequence-with-occurrences-of-a-letter/"/>
-    <hyperlink ref="C41" r:id="rId6" display="2045. 到达目的地的第二短时间" tooltip="https://leetcode-cn.com/problems/second-minimum-time-to-reach-destination/"/>
-    <hyperlink ref="C39" r:id="rId7" display="2043. 简易银行系统" tooltip="https://leetcode-cn.com/problems/simple-bank-system/"/>
-    <hyperlink ref="C38" r:id="rId8" display="2042. 检查句子中的数字是否递增" tooltip="https://leetcode-cn.com/problems/check-if-numbers-are-ascending-in-a-sentence/"/>
-    <hyperlink ref="C20" r:id="rId9" display="6072. 转角路径的乘积中最多能有几个尾随零" tooltip="https://leetcode-cn.com/problems/maximum-trailing-zeros-in-a-cornered-path/"/>
-    <hyperlink ref="C21" r:id="rId10" display="6073. 相邻字符不同的最长路径" tooltip="https://leetcode-cn.com/problems/longest-path-with-different-adjacent-characters/"/>
-    <hyperlink ref="A10" r:id="rId11" display="BiWeek76"/>
-  </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
@@ -2035,226 +1156,17 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B6:L14"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.8"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="3" width="11" style="14" customWidth="1"/>
-    <col min="4" max="4" width="10.4230769230769" style="14" customWidth="1"/>
-    <col min="5" max="256" width="11" style="14" customWidth="1"/>
-    <col min="257" max="16384" width="10" style="14"/>
+    <col min="1" max="256" width="11" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="6" spans="2:12">
-      <c r="B6" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="14">
-        <v>20</v>
-      </c>
-      <c r="D6" s="14">
-        <v>3</v>
-      </c>
-      <c r="E6" s="14">
-        <v>20</v>
-      </c>
-      <c r="F6" s="14">
-        <v>17</v>
-      </c>
-      <c r="G6" s="14">
-        <v>2</v>
-      </c>
-      <c r="H6" s="14">
-        <v>12</v>
-      </c>
-      <c r="I6" s="14">
-        <v>15</v>
-      </c>
-      <c r="J6" s="14">
-        <v>17</v>
-      </c>
-      <c r="K6" s="14">
-        <v>4</v>
-      </c>
-      <c r="L6" s="14">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="3:12">
-      <c r="C7" s="14">
-        <v>20</v>
-      </c>
-      <c r="D7" s="14">
-        <v>10</v>
-      </c>
-      <c r="E7" s="14">
-        <v>13</v>
-      </c>
-      <c r="F7" s="14">
-        <v>14</v>
-      </c>
-      <c r="G7" s="14">
-        <v>15</v>
-      </c>
-      <c r="H7" s="14">
-        <v>5</v>
-      </c>
-      <c r="I7" s="14">
-        <v>2</v>
-      </c>
-      <c r="J7" s="14">
-        <v>3</v>
-      </c>
-      <c r="K7" s="14">
-        <v>14</v>
-      </c>
-      <c r="L7" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12">
-      <c r="B9" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="14">
-        <v>20</v>
-      </c>
-      <c r="D9" s="14">
-        <v>23</v>
-      </c>
-      <c r="E9" s="14">
-        <v>43</v>
-      </c>
-      <c r="F9" s="14">
-        <v>60</v>
-      </c>
-      <c r="G9" s="14">
-        <v>62</v>
-      </c>
-      <c r="H9" s="14">
-        <v>74</v>
-      </c>
-      <c r="I9" s="14">
-        <v>89</v>
-      </c>
-      <c r="J9" s="14">
-        <v>106</v>
-      </c>
-      <c r="K9" s="14">
-        <v>110</v>
-      </c>
-      <c r="L9" s="14">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="10" spans="3:12">
-      <c r="C10" s="14">
-        <v>40</v>
-      </c>
-      <c r="D10" s="14">
-        <v>50</v>
-      </c>
-      <c r="E10" s="14">
-        <v>63</v>
-      </c>
-      <c r="F10" s="14">
-        <v>77</v>
-      </c>
-      <c r="G10" s="14">
-        <v>92</v>
-      </c>
-      <c r="H10" s="14">
-        <v>97</v>
-      </c>
-      <c r="I10" s="14">
-        <v>99</v>
-      </c>
-      <c r="J10" s="14">
-        <v>109</v>
-      </c>
-      <c r="K10" s="14">
-        <v>124</v>
-      </c>
-      <c r="L10" s="14">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12">
-      <c r="B13" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="14">
-        <v>0</v>
-      </c>
-      <c r="D13" s="14">
-        <v>0</v>
-      </c>
-      <c r="E13" s="14">
-        <v>0</v>
-      </c>
-      <c r="F13" s="14">
-        <v>0</v>
-      </c>
-      <c r="G13" s="14">
-        <v>0</v>
-      </c>
-      <c r="H13" s="14">
-        <v>0</v>
-      </c>
-      <c r="I13" s="14">
-        <v>0</v>
-      </c>
-      <c r="J13" s="14">
-        <v>0</v>
-      </c>
-      <c r="K13" s="14">
-        <v>0</v>
-      </c>
-      <c r="L13" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12">
-      <c r="B14" s="15">
-        <f>SUM(C14:K14)</f>
-        <v>96</v>
-      </c>
-      <c r="C14" s="14">
-        <v>20</v>
-      </c>
-      <c r="D14" s="14">
-        <v>10</v>
-      </c>
-      <c r="E14" s="14">
-        <v>13</v>
-      </c>
-      <c r="F14" s="14">
-        <v>14</v>
-      </c>
-      <c r="G14" s="14">
-        <v>15</v>
-      </c>
-      <c r="H14" s="14">
-        <v>5</v>
-      </c>
-      <c r="I14" s="14">
-        <v>2</v>
-      </c>
-      <c r="J14" s="14">
-        <v>3</v>
-      </c>
-      <c r="K14" s="14">
-        <v>14</v>
-      </c>
-      <c r="L14" s="14">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
@@ -2265,8 +1177,8 @@
   <sheetPr/>
   <dimension ref="B3:N78"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="R70" sqref="R70"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="C71" sqref="C70:C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.73076923076923" defaultRowHeight="35" customHeight="1"/>
@@ -2364,7 +1276,7 @@
       </c>
       <c r="C10" s="3"/>
       <c r="F10" s="1" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="J10" s="6"/>
     </row>
@@ -2447,7 +1359,7 @@
       </c>
       <c r="C17" s="3"/>
       <c r="I17" s="1" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="J17" s="6"/>
     </row>
@@ -2524,7 +1436,7 @@
       <c r="B23" s="2"/>
       <c r="C23" s="3"/>
       <c r="J23" s="1" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="2:10">
@@ -2614,7 +1526,7 @@
       <c r="C31" s="3"/>
       <c r="J31" s="6"/>
       <c r="M31" s="1" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="2:13">
@@ -2688,14 +1600,14 @@
     </row>
     <row r="37" customHeight="1" spans="8:8">
       <c r="H37" s="10" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="2:13">
       <c r="B38" s="2"/>
       <c r="C38" s="3"/>
       <c r="M38" s="1" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="2:13">
@@ -2704,11 +1616,11 @@
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="1" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="J39" s="6"/>
       <c r="M39" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="2:13">
@@ -2717,7 +1629,7 @@
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="F40" s="6"/>
       <c r="G40" s="7"/>
@@ -2786,14 +1698,14 @@
     </row>
     <row r="43" customHeight="1" spans="8:8">
       <c r="H43" s="10" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="2:13">
       <c r="B44" s="2"/>
       <c r="C44" s="3"/>
       <c r="M44" s="1" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="2:13">
@@ -2802,11 +1714,11 @@
       </c>
       <c r="C45" s="3"/>
       <c r="G45" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="J45" s="6"/>
       <c r="M45" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="2:13">
@@ -2881,14 +1793,14 @@
     </row>
     <row r="49" customHeight="1" spans="8:8">
       <c r="H49" s="10" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="2:13">
       <c r="B50" s="2"/>
       <c r="C50" s="3"/>
       <c r="M50" s="1" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="2:13">
@@ -2897,14 +1809,14 @@
       </c>
       <c r="C51" s="3"/>
       <c r="F51" s="1" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="J51" s="6"/>
       <c r="M51" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="2:13">
@@ -2979,14 +1891,14 @@
     </row>
     <row r="55" customHeight="1" spans="8:8">
       <c r="H55" s="10" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="2:13">
       <c r="B56" s="2"/>
       <c r="C56" s="3"/>
       <c r="M56" s="1" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="2:13">
@@ -2995,14 +1907,14 @@
       </c>
       <c r="C57" s="3"/>
       <c r="F57" s="1" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="J57" s="6"/>
       <c r="M57" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="2:13">
@@ -3077,20 +1989,20 @@
     </row>
     <row r="61" customHeight="1" spans="8:10">
       <c r="H61" s="10" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="2:13">
       <c r="B62" s="2"/>
       <c r="C62" s="3"/>
       <c r="J62" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="2:13">
@@ -3100,7 +2012,7 @@
       <c r="C63" s="3"/>
       <c r="J63" s="6"/>
       <c r="M63" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="2:13">
@@ -3175,20 +2087,20 @@
     </row>
     <row r="67" customHeight="1" spans="8:10">
       <c r="H67" s="10" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" customHeight="1" spans="2:13">
       <c r="B68" s="2"/>
       <c r="C68" s="3"/>
       <c r="J68" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" customHeight="1" spans="2:12">
@@ -3199,7 +2111,7 @@
       <c r="J69" s="6"/>
       <c r="K69" s="13"/>
       <c r="L69" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70" customHeight="1" spans="2:13">
@@ -3274,20 +2186,20 @@
     </row>
     <row r="73" customHeight="1" spans="8:10">
       <c r="H73" s="10" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74" customHeight="1" spans="2:11">
       <c r="B74" s="2"/>
       <c r="C74" s="3"/>
       <c r="J74" s="1" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75" customHeight="1" spans="2:12">

--- a/_book/src/main/leetcode_manuscripts/draw_io/leetcode_graph.xlsx
+++ b/_book/src/main/leetcode_manuscripts/draw_io/leetcode_graph.xlsx
@@ -4,19 +4,241 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16680" windowHeight="16960" activeTab="2"/>
+    <workbookView windowHeight="16540"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="index" sheetId="1" r:id="rId1"/>
+    <sheet name="dp" sheetId="2" r:id="rId2"/>
+    <sheet name="graph" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
+  <si>
+    <t>BiWeek76</t>
+  </si>
+  <si>
+    <t>难度</t>
+  </si>
+  <si>
+    <t>链接</t>
+  </si>
+  <si>
+    <t>完成度</t>
+  </si>
+  <si>
+    <t>分析度</t>
+  </si>
+  <si>
+    <t>标签</t>
+  </si>
+  <si>
+    <t>关联题</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>Easy</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>Hard</t>
+  </si>
+  <si>
+    <t>Week298</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF262626"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">6072. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF262626"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>转角路径的乘积中最多能有几个尾随零</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF262626"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">6073. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF262626"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>相邻字符不同的最长路径</t>
+    </r>
+  </si>
+  <si>
+    <t>Week261</t>
+  </si>
+  <si>
+    <t>2027. 转换字符串的最少操作次数</t>
+  </si>
+  <si>
+    <t>2028. 找出缺失的观测数据</t>
+  </si>
+  <si>
+    <t>2029. 石子游戏 IX</t>
+  </si>
+  <si>
+    <t>博弈，思维，石子游戏</t>
+  </si>
+  <si>
+    <t>石子游戏数题</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF262626"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">2030. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF262626"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>含特定字母的最小子序列</t>
+    </r>
+  </si>
+  <si>
+    <t>316. 去除重复字母
+1081. 不同字符的最小子序列
+402. 移掉 K 位数字
+321. 拼接最大数</t>
+  </si>
+  <si>
+    <t>Week263</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF262626"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">2042. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF262626"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>检查句子中的数字是否递增</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF262626"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">2043. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF262626"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>简易银行系统</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2044. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>统计按位或能得到最大值的子集数目</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF262626"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">2045. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF262626"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>到达目的地的第二短时间</t>
+    </r>
+  </si>
+  <si>
+    <t>grid</t>
+  </si>
+  <si>
+    <t>dp</t>
+  </si>
+  <si>
+    <t>sum</t>
+  </si>
   <si>
     <t>cur=3</t>
   </si>
@@ -71,12 +293,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <name val="宋体"/>
@@ -99,10 +321,62 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="14"/>
+      <name val="STHeiti Light"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color rgb="FF800080"/>
+      <name val="STHeiti Light"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF262626"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF262626"/>
+      <name val="STHeiti Light"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -114,7 +388,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -128,15 +402,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -151,15 +451,43 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -173,84 +501,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <sz val="14"/>
+      <color rgb="FF262626"/>
+      <name val="方正书宋_GBK"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <sz val="14"/>
+      <name val="方正书宋_GBK"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -301,174 +563,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -506,11 +774,82 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -533,6 +872,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -543,6 +891,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -575,21 +938,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -608,152 +956,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -796,8 +1144,107 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1118,36 +1565,468 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:A117"/>
+  <dimension ref="A1:S137"/>
   <sheetViews>
-    <sheetView topLeftCell="A128" workbookViewId="0">
-      <selection activeCell="E155" sqref="$A1:$XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.8"/>
   <cols>
-    <col min="1" max="256" width="11" customWidth="1"/>
+    <col min="1" max="2" width="14.2307692307692" style="14" customWidth="1"/>
+    <col min="3" max="3" width="57.2692307692308" style="14" customWidth="1"/>
+    <col min="4" max="5" width="11" style="14" customWidth="1"/>
+    <col min="6" max="6" width="31.0769230769231" style="14" customWidth="1"/>
+    <col min="7" max="7" width="39.3076923076923" style="14" customWidth="1"/>
+    <col min="8" max="257" width="11" style="14" customWidth="1"/>
+    <col min="258" max="16384" width="10" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="14"/>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="14"/>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="14"/>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="14"/>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" s="14"/>
-    </row>
-    <row r="117" spans="1:1">
-      <c r="A117" s="14"/>
+    <row r="1" spans="1:2">
+      <c r="A1" s="16"/>
+      <c r="B1" s="16"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+    </row>
+    <row r="9" ht="15.55" spans="1:2">
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="42"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="42"/>
+    </row>
+    <row r="13" ht="16.8" spans="1:8">
+      <c r="A13" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="21"/>
+      <c r="H13" s="42"/>
+    </row>
+    <row r="14" ht="17.55" spans="1:8">
+      <c r="A14" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="24"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="43"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" ht="17" spans="1:3">
+      <c r="A20" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" ht="17" spans="1:3">
+      <c r="A21" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" ht="15.55"/>
+    <row r="24" spans="1:8">
+      <c r="A24" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="H24" s="44" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" ht="15" spans="1:19">
+      <c r="A25" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="32">
+        <v>1</v>
+      </c>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="45"/>
+      <c r="L25" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M25" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="N25" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="O25" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="P25" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q25" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="R25" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="S25" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" ht="15" spans="1:13">
+      <c r="A26" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="32">
+        <v>1</v>
+      </c>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="45"/>
+      <c r="L26" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="M26" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" ht="15" spans="1:13">
+      <c r="A27" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="33">
+        <v>1</v>
+      </c>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" s="45"/>
+      <c r="L27" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="M27" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" ht="60.75" spans="1:13">
+      <c r="A28" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="37">
+        <v>0.7</v>
+      </c>
+      <c r="E28" s="37">
+        <v>0.4</v>
+      </c>
+      <c r="F28" s="35"/>
+      <c r="G28" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="H28" s="47"/>
+      <c r="L28" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="M28" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="12:13">
+      <c r="L29" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="M29" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" ht="15.55"/>
+    <row r="37" spans="1:8">
+      <c r="A37" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="B37" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="F37" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="G37" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="H37" s="44" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" ht="17" spans="1:8">
+      <c r="A38" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38" s="32">
+        <v>1</v>
+      </c>
+      <c r="H38" s="45"/>
+    </row>
+    <row r="39" ht="17" spans="1:8">
+      <c r="A39" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39" s="32">
+        <v>1</v>
+      </c>
+      <c r="H39" s="45"/>
+    </row>
+    <row r="40" ht="17" spans="1:8">
+      <c r="A40" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40" s="32">
+        <v>1</v>
+      </c>
+      <c r="H40" s="45"/>
+    </row>
+    <row r="41" ht="17.75" spans="1:8">
+      <c r="A41" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41" s="40">
+        <v>0.6</v>
+      </c>
+      <c r="E41" s="35"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="47"/>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="16"/>
+      <c r="B81" s="16"/>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="16"/>
+      <c r="B137" s="16"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C27" r:id="rId1" display="2029. 石子游戏 IX" tooltip="https://leetcode-cn.com/problems/stone-game-ix/"/>
+    <hyperlink ref="A24" r:id="rId2" display="Week261"/>
+    <hyperlink ref="C25" r:id="rId3" display="2027. 转换字符串的最少操作次数" tooltip="https://leetcode-cn.com/problems/minimum-moves-to-convert-string/"/>
+    <hyperlink ref="C26" r:id="rId4" display="2028. 找出缺失的观测数据" tooltip="https://leetcode-cn.com/problems/find-missing-observations/"/>
+    <hyperlink ref="C28" r:id="rId5" display="2030. 含特定字母的最小子序列" tooltip="https://leetcode-cn.com/problems/smallest-k-length-subsequence-with-occurrences-of-a-letter/"/>
+    <hyperlink ref="C41" r:id="rId6" display="2045. 到达目的地的第二短时间" tooltip="https://leetcode-cn.com/problems/second-minimum-time-to-reach-destination/"/>
+    <hyperlink ref="C39" r:id="rId7" display="2043. 简易银行系统" tooltip="https://leetcode-cn.com/problems/simple-bank-system/"/>
+    <hyperlink ref="C38" r:id="rId8" display="2042. 检查句子中的数字是否递增" tooltip="https://leetcode-cn.com/problems/check-if-numbers-are-ascending-in-a-sentence/"/>
+    <hyperlink ref="C20" r:id="rId9" display="6072. 转角路径的乘积中最多能有几个尾随零" tooltip="https://leetcode-cn.com/problems/maximum-trailing-zeros-in-a-cornered-path/"/>
+    <hyperlink ref="C21" r:id="rId10" display="6073. 相邻字符不同的最长路径" tooltip="https://leetcode-cn.com/problems/longest-path-with-different-adjacent-characters/"/>
+    <hyperlink ref="A10" r:id="rId11" display="BiWeek76"/>
+  </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
@@ -1156,17 +2035,226 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="B6:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.8"/>
   <cols>
-    <col min="1" max="256" width="11" customWidth="1"/>
+    <col min="1" max="3" width="11" style="14" customWidth="1"/>
+    <col min="4" max="4" width="10.4230769230769" style="14" customWidth="1"/>
+    <col min="5" max="256" width="11" style="14" customWidth="1"/>
+    <col min="257" max="16384" width="10" style="14"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="6" spans="2:12">
+      <c r="B6" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="14">
+        <v>20</v>
+      </c>
+      <c r="D6" s="14">
+        <v>3</v>
+      </c>
+      <c r="E6" s="14">
+        <v>20</v>
+      </c>
+      <c r="F6" s="14">
+        <v>17</v>
+      </c>
+      <c r="G6" s="14">
+        <v>2</v>
+      </c>
+      <c r="H6" s="14">
+        <v>12</v>
+      </c>
+      <c r="I6" s="14">
+        <v>15</v>
+      </c>
+      <c r="J6" s="14">
+        <v>17</v>
+      </c>
+      <c r="K6" s="14">
+        <v>4</v>
+      </c>
+      <c r="L6" s="14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="3:12">
+      <c r="C7" s="14">
+        <v>20</v>
+      </c>
+      <c r="D7" s="14">
+        <v>10</v>
+      </c>
+      <c r="E7" s="14">
+        <v>13</v>
+      </c>
+      <c r="F7" s="14">
+        <v>14</v>
+      </c>
+      <c r="G7" s="14">
+        <v>15</v>
+      </c>
+      <c r="H7" s="14">
+        <v>5</v>
+      </c>
+      <c r="I7" s="14">
+        <v>2</v>
+      </c>
+      <c r="J7" s="14">
+        <v>3</v>
+      </c>
+      <c r="K7" s="14">
+        <v>14</v>
+      </c>
+      <c r="L7" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="B9" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="14">
+        <v>20</v>
+      </c>
+      <c r="D9" s="14">
+        <v>23</v>
+      </c>
+      <c r="E9" s="14">
+        <v>43</v>
+      </c>
+      <c r="F9" s="14">
+        <v>60</v>
+      </c>
+      <c r="G9" s="14">
+        <v>62</v>
+      </c>
+      <c r="H9" s="14">
+        <v>74</v>
+      </c>
+      <c r="I9" s="14">
+        <v>89</v>
+      </c>
+      <c r="J9" s="14">
+        <v>106</v>
+      </c>
+      <c r="K9" s="14">
+        <v>110</v>
+      </c>
+      <c r="L9" s="14">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="3:12">
+      <c r="C10" s="14">
+        <v>40</v>
+      </c>
+      <c r="D10" s="14">
+        <v>50</v>
+      </c>
+      <c r="E10" s="14">
+        <v>63</v>
+      </c>
+      <c r="F10" s="14">
+        <v>77</v>
+      </c>
+      <c r="G10" s="14">
+        <v>92</v>
+      </c>
+      <c r="H10" s="14">
+        <v>97</v>
+      </c>
+      <c r="I10" s="14">
+        <v>99</v>
+      </c>
+      <c r="J10" s="14">
+        <v>109</v>
+      </c>
+      <c r="K10" s="14">
+        <v>124</v>
+      </c>
+      <c r="L10" s="14">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12">
+      <c r="B13" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="14">
+        <v>0</v>
+      </c>
+      <c r="D13" s="14">
+        <v>0</v>
+      </c>
+      <c r="E13" s="14">
+        <v>0</v>
+      </c>
+      <c r="F13" s="14">
+        <v>0</v>
+      </c>
+      <c r="G13" s="14">
+        <v>0</v>
+      </c>
+      <c r="H13" s="14">
+        <v>0</v>
+      </c>
+      <c r="I13" s="14">
+        <v>0</v>
+      </c>
+      <c r="J13" s="14">
+        <v>0</v>
+      </c>
+      <c r="K13" s="14">
+        <v>0</v>
+      </c>
+      <c r="L13" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12">
+      <c r="B14" s="15">
+        <f>SUM(C14:K14)</f>
+        <v>96</v>
+      </c>
+      <c r="C14" s="14">
+        <v>20</v>
+      </c>
+      <c r="D14" s="14">
+        <v>10</v>
+      </c>
+      <c r="E14" s="14">
+        <v>13</v>
+      </c>
+      <c r="F14" s="14">
+        <v>14</v>
+      </c>
+      <c r="G14" s="14">
+        <v>15</v>
+      </c>
+      <c r="H14" s="14">
+        <v>5</v>
+      </c>
+      <c r="I14" s="14">
+        <v>2</v>
+      </c>
+      <c r="J14" s="14">
+        <v>3</v>
+      </c>
+      <c r="K14" s="14">
+        <v>14</v>
+      </c>
+      <c r="L14" s="14">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
@@ -1177,8 +2265,8 @@
   <sheetPr/>
   <dimension ref="B3:N78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="C71" sqref="C70:C71"/>
+    <sheetView topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="R70" sqref="R70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.73076923076923" defaultRowHeight="35" customHeight="1"/>
@@ -1276,7 +2364,7 @@
       </c>
       <c r="C10" s="3"/>
       <c r="F10" s="1" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="J10" s="6"/>
     </row>
@@ -1359,7 +2447,7 @@
       </c>
       <c r="C17" s="3"/>
       <c r="I17" s="1" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="J17" s="6"/>
     </row>
@@ -1436,7 +2524,7 @@
       <c r="B23" s="2"/>
       <c r="C23" s="3"/>
       <c r="J23" s="1" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="2:10">
@@ -1526,7 +2614,7 @@
       <c r="C31" s="3"/>
       <c r="J31" s="6"/>
       <c r="M31" s="1" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="2:13">
@@ -1600,14 +2688,14 @@
     </row>
     <row r="37" customHeight="1" spans="8:8">
       <c r="H37" s="10" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="2:13">
       <c r="B38" s="2"/>
       <c r="C38" s="3"/>
       <c r="M38" s="1" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="2:13">
@@ -1616,11 +2704,11 @@
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="1" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="J39" s="6"/>
       <c r="M39" s="1" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="2:13">
@@ -1629,7 +2717,7 @@
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="1" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="F40" s="6"/>
       <c r="G40" s="7"/>
@@ -1698,14 +2786,14 @@
     </row>
     <row r="43" customHeight="1" spans="8:8">
       <c r="H43" s="10" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="2:13">
       <c r="B44" s="2"/>
       <c r="C44" s="3"/>
       <c r="M44" s="1" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="2:13">
@@ -1714,11 +2802,11 @@
       </c>
       <c r="C45" s="3"/>
       <c r="G45" s="1" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="J45" s="6"/>
       <c r="M45" s="1" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="2:13">
@@ -1793,14 +2881,14 @@
     </row>
     <row r="49" customHeight="1" spans="8:8">
       <c r="H49" s="10" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="2:13">
       <c r="B50" s="2"/>
       <c r="C50" s="3"/>
       <c r="M50" s="1" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="2:13">
@@ -1809,14 +2897,14 @@
       </c>
       <c r="C51" s="3"/>
       <c r="F51" s="1" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="J51" s="6"/>
       <c r="M51" s="1" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="2:13">
@@ -1891,14 +2979,14 @@
     </row>
     <row r="55" customHeight="1" spans="8:8">
       <c r="H55" s="10" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="2:13">
       <c r="B56" s="2"/>
       <c r="C56" s="3"/>
       <c r="M56" s="1" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="2:13">
@@ -1907,14 +2995,14 @@
       </c>
       <c r="C57" s="3"/>
       <c r="F57" s="1" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="J57" s="6"/>
       <c r="M57" s="1" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="2:13">
@@ -1989,20 +3077,20 @@
     </row>
     <row r="61" customHeight="1" spans="8:10">
       <c r="H61" s="10" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="2:13">
       <c r="B62" s="2"/>
       <c r="C62" s="3"/>
       <c r="J62" s="1" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="2:13">
@@ -2012,7 +3100,7 @@
       <c r="C63" s="3"/>
       <c r="J63" s="6"/>
       <c r="M63" s="1" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="2:13">
@@ -2087,20 +3175,20 @@
     </row>
     <row r="67" customHeight="1" spans="8:10">
       <c r="H67" s="10" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
     </row>
     <row r="68" customHeight="1" spans="2:13">
       <c r="B68" s="2"/>
       <c r="C68" s="3"/>
       <c r="J68" s="1" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
     </row>
     <row r="69" customHeight="1" spans="2:12">
@@ -2111,7 +3199,7 @@
       <c r="J69" s="6"/>
       <c r="K69" s="13"/>
       <c r="L69" s="1" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
     </row>
     <row r="70" customHeight="1" spans="2:13">
@@ -2186,20 +3274,20 @@
     </row>
     <row r="73" customHeight="1" spans="8:10">
       <c r="H73" s="10" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
     </row>
     <row r="74" customHeight="1" spans="2:11">
       <c r="B74" s="2"/>
       <c r="C74" s="3"/>
       <c r="J74" s="1" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
     </row>
     <row r="75" customHeight="1" spans="2:12">

--- a/_book/src/main/leetcode_manuscripts/draw_io/leetcode_graph.xlsx
+++ b/_book/src/main/leetcode_manuscripts/draw_io/leetcode_graph.xlsx
@@ -4,241 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16540"/>
+    <workbookView windowWidth="16680" windowHeight="16960" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="index" sheetId="1" r:id="rId1"/>
-    <sheet name="dp" sheetId="2" r:id="rId2"/>
-    <sheet name="graph" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
-  <si>
-    <t>BiWeek76</t>
-  </si>
-  <si>
-    <t>难度</t>
-  </si>
-  <si>
-    <t>链接</t>
-  </si>
-  <si>
-    <t>完成度</t>
-  </si>
-  <si>
-    <t>分析度</t>
-  </si>
-  <si>
-    <t>标签</t>
-  </si>
-  <si>
-    <t>关联题</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>T1</t>
-  </si>
-  <si>
-    <t>Easy</t>
-  </si>
-  <si>
-    <t>T2</t>
-  </si>
-  <si>
-    <t>Medium</t>
-  </si>
-  <si>
-    <t>T3</t>
-  </si>
-  <si>
-    <t>T4</t>
-  </si>
-  <si>
-    <t>Hard</t>
-  </si>
-  <si>
-    <t>Week298</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF262626"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">6072. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF262626"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>转角路径的乘积中最多能有几个尾随零</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF262626"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">6073. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF262626"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>相邻字符不同的最长路径</t>
-    </r>
-  </si>
-  <si>
-    <t>Week261</t>
-  </si>
-  <si>
-    <t>2027. 转换字符串的最少操作次数</t>
-  </si>
-  <si>
-    <t>2028. 找出缺失的观测数据</t>
-  </si>
-  <si>
-    <t>2029. 石子游戏 IX</t>
-  </si>
-  <si>
-    <t>博弈，思维，石子游戏</t>
-  </si>
-  <si>
-    <t>石子游戏数题</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF262626"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">2030. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF262626"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>含特定字母的最小子序列</t>
-    </r>
-  </si>
-  <si>
-    <t>316. 去除重复字母
-1081. 不同字符的最小子序列
-402. 移掉 K 位数字
-321. 拼接最大数</t>
-  </si>
-  <si>
-    <t>Week263</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF262626"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">2042. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF262626"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>检查句子中的数字是否递增</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF262626"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">2043. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF262626"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>简易银行系统</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2044. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>统计按位或能得到最大值的子集数目</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF262626"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">2045. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF262626"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>到达目的地的第二短时间</t>
-    </r>
-  </si>
-  <si>
-    <t>grid</t>
-  </si>
-  <si>
-    <t>dp</t>
-  </si>
-  <si>
-    <t>sum</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
   <si>
     <t>cur=3</t>
   </si>
@@ -293,12 +71,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <name val="宋体"/>
@@ -321,9 +99,108 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="14"/>
-      <name val="STHeiti Light"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -334,37 +211,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="14"/>
-      <color rgb="FF800080"/>
-      <name val="STHeiti Light"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF262626"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF262626"/>
-      <name val="STHeiti Light"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -374,16 +221,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -396,83 +236,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -485,34 +249,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF262626"/>
-      <name val="方正书宋_GBK"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <name val="方正书宋_GBK"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="38">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -563,55 +301,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -623,67 +445,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -695,18 +457,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -717,26 +467,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="20">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -774,82 +506,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -872,15 +533,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -891,21 +543,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -938,6 +575,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -956,152 +608,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1144,107 +796,8 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1565,468 +1118,36 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:S137"/>
+  <dimension ref="A1:A117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView topLeftCell="A128" workbookViewId="0">
+      <selection activeCell="E155" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.8"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="2" width="14.2307692307692" style="14" customWidth="1"/>
-    <col min="3" max="3" width="57.2692307692308" style="14" customWidth="1"/>
-    <col min="4" max="5" width="11" style="14" customWidth="1"/>
-    <col min="6" max="6" width="31.0769230769231" style="14" customWidth="1"/>
-    <col min="7" max="7" width="39.3076923076923" style="14" customWidth="1"/>
-    <col min="8" max="257" width="11" style="14" customWidth="1"/>
-    <col min="258" max="16384" width="10" style="14"/>
+    <col min="1" max="256" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="16"/>
-      <c r="B1" s="16"/>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-    </row>
-    <row r="9" ht="15.55" spans="1:2">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" s="41" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" s="42"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="42"/>
-    </row>
-    <row r="13" ht="16.8" spans="1:8">
-      <c r="A13" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="21"/>
-      <c r="H13" s="42"/>
-    </row>
-    <row r="14" ht="17.55" spans="1:8">
-      <c r="A14" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="43"/>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="H17" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" ht="17" spans="1:3">
-      <c r="A20" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" ht="17" spans="1:3">
-      <c r="A21" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" ht="15.55"/>
-    <row r="24" spans="1:8">
-      <c r="A24" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="F24" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="G24" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="H24" s="44" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" ht="15" spans="1:19">
-      <c r="A25" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="32">
-        <v>1</v>
-      </c>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="45"/>
-      <c r="L25" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="M25" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="N25" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="O25" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="P25" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q25" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="R25" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="S25" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" ht="15" spans="1:13">
-      <c r="A26" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26" s="32">
-        <v>1</v>
-      </c>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="45"/>
-      <c r="L26" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="M26" s="14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" ht="15" spans="1:13">
-      <c r="A27" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" s="33">
-        <v>1</v>
-      </c>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="H27" s="45"/>
-      <c r="L27" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="M27" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" ht="60.75" spans="1:13">
-      <c r="A28" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28" s="37">
-        <v>0.7</v>
-      </c>
-      <c r="E28" s="37">
-        <v>0.4</v>
-      </c>
-      <c r="F28" s="35"/>
-      <c r="G28" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="H28" s="47"/>
-      <c r="L28" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="M28" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="12:13">
-      <c r="L29" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="M29" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" ht="15.55"/>
-    <row r="37" spans="1:8">
-      <c r="A37" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="B37" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C37" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="D37" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="E37" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="F37" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="G37" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="H37" s="44" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" ht="17" spans="1:8">
-      <c r="A38" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="B38" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D38" s="32">
-        <v>1</v>
-      </c>
-      <c r="H38" s="45"/>
-    </row>
-    <row r="39" ht="17" spans="1:8">
-      <c r="A39" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D39" s="32">
-        <v>1</v>
-      </c>
-      <c r="H39" s="45"/>
-    </row>
-    <row r="40" ht="17" spans="1:8">
-      <c r="A40" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="B40" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C40" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="D40" s="32">
-        <v>1</v>
-      </c>
-      <c r="H40" s="45"/>
-    </row>
-    <row r="41" ht="17.75" spans="1:8">
-      <c r="A41" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="B41" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="C41" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="D41" s="40">
-        <v>0.6</v>
-      </c>
-      <c r="E41" s="35"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="47"/>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="16"/>
-      <c r="B81" s="16"/>
-    </row>
-    <row r="137" spans="1:2">
-      <c r="A137" s="16"/>
-      <c r="B137" s="16"/>
+    <row r="1" spans="1:1">
+      <c r="A1" s="14"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="14"/>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="14"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="14"/>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="14"/>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="14"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C27" r:id="rId1" display="2029. 石子游戏 IX" tooltip="https://leetcode-cn.com/problems/stone-game-ix/"/>
-    <hyperlink ref="A24" r:id="rId2" display="Week261"/>
-    <hyperlink ref="C25" r:id="rId3" display="2027. 转换字符串的最少操作次数" tooltip="https://leetcode-cn.com/problems/minimum-moves-to-convert-string/"/>
-    <hyperlink ref="C26" r:id="rId4" display="2028. 找出缺失的观测数据" tooltip="https://leetcode-cn.com/problems/find-missing-observations/"/>
-    <hyperlink ref="C28" r:id="rId5" display="2030. 含特定字母的最小子序列" tooltip="https://leetcode-cn.com/problems/smallest-k-length-subsequence-with-occurrences-of-a-letter/"/>
-    <hyperlink ref="C41" r:id="rId6" display="2045. 到达目的地的第二短时间" tooltip="https://leetcode-cn.com/problems/second-minimum-time-to-reach-destination/"/>
-    <hyperlink ref="C39" r:id="rId7" display="2043. 简易银行系统" tooltip="https://leetcode-cn.com/problems/simple-bank-system/"/>
-    <hyperlink ref="C38" r:id="rId8" display="2042. 检查句子中的数字是否递增" tooltip="https://leetcode-cn.com/problems/check-if-numbers-are-ascending-in-a-sentence/"/>
-    <hyperlink ref="C20" r:id="rId9" display="6072. 转角路径的乘积中最多能有几个尾随零" tooltip="https://leetcode-cn.com/problems/maximum-trailing-zeros-in-a-cornered-path/"/>
-    <hyperlink ref="C21" r:id="rId10" display="6073. 相邻字符不同的最长路径" tooltip="https://leetcode-cn.com/problems/longest-path-with-different-adjacent-characters/"/>
-    <hyperlink ref="A10" r:id="rId11" display="BiWeek76"/>
-  </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
@@ -2035,226 +1156,17 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B6:L14"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.8"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="3" width="11" style="14" customWidth="1"/>
-    <col min="4" max="4" width="10.4230769230769" style="14" customWidth="1"/>
-    <col min="5" max="256" width="11" style="14" customWidth="1"/>
-    <col min="257" max="16384" width="10" style="14"/>
+    <col min="1" max="256" width="11" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="6" spans="2:12">
-      <c r="B6" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="14">
-        <v>20</v>
-      </c>
-      <c r="D6" s="14">
-        <v>3</v>
-      </c>
-      <c r="E6" s="14">
-        <v>20</v>
-      </c>
-      <c r="F6" s="14">
-        <v>17</v>
-      </c>
-      <c r="G6" s="14">
-        <v>2</v>
-      </c>
-      <c r="H6" s="14">
-        <v>12</v>
-      </c>
-      <c r="I6" s="14">
-        <v>15</v>
-      </c>
-      <c r="J6" s="14">
-        <v>17</v>
-      </c>
-      <c r="K6" s="14">
-        <v>4</v>
-      </c>
-      <c r="L6" s="14">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="3:12">
-      <c r="C7" s="14">
-        <v>20</v>
-      </c>
-      <c r="D7" s="14">
-        <v>10</v>
-      </c>
-      <c r="E7" s="14">
-        <v>13</v>
-      </c>
-      <c r="F7" s="14">
-        <v>14</v>
-      </c>
-      <c r="G7" s="14">
-        <v>15</v>
-      </c>
-      <c r="H7" s="14">
-        <v>5</v>
-      </c>
-      <c r="I7" s="14">
-        <v>2</v>
-      </c>
-      <c r="J7" s="14">
-        <v>3</v>
-      </c>
-      <c r="K7" s="14">
-        <v>14</v>
-      </c>
-      <c r="L7" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12">
-      <c r="B9" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="14">
-        <v>20</v>
-      </c>
-      <c r="D9" s="14">
-        <v>23</v>
-      </c>
-      <c r="E9" s="14">
-        <v>43</v>
-      </c>
-      <c r="F9" s="14">
-        <v>60</v>
-      </c>
-      <c r="G9" s="14">
-        <v>62</v>
-      </c>
-      <c r="H9" s="14">
-        <v>74</v>
-      </c>
-      <c r="I9" s="14">
-        <v>89</v>
-      </c>
-      <c r="J9" s="14">
-        <v>106</v>
-      </c>
-      <c r="K9" s="14">
-        <v>110</v>
-      </c>
-      <c r="L9" s="14">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="10" spans="3:12">
-      <c r="C10" s="14">
-        <v>40</v>
-      </c>
-      <c r="D10" s="14">
-        <v>50</v>
-      </c>
-      <c r="E10" s="14">
-        <v>63</v>
-      </c>
-      <c r="F10" s="14">
-        <v>77</v>
-      </c>
-      <c r="G10" s="14">
-        <v>92</v>
-      </c>
-      <c r="H10" s="14">
-        <v>97</v>
-      </c>
-      <c r="I10" s="14">
-        <v>99</v>
-      </c>
-      <c r="J10" s="14">
-        <v>109</v>
-      </c>
-      <c r="K10" s="14">
-        <v>124</v>
-      </c>
-      <c r="L10" s="14">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12">
-      <c r="B13" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="14">
-        <v>0</v>
-      </c>
-      <c r="D13" s="14">
-        <v>0</v>
-      </c>
-      <c r="E13" s="14">
-        <v>0</v>
-      </c>
-      <c r="F13" s="14">
-        <v>0</v>
-      </c>
-      <c r="G13" s="14">
-        <v>0</v>
-      </c>
-      <c r="H13" s="14">
-        <v>0</v>
-      </c>
-      <c r="I13" s="14">
-        <v>0</v>
-      </c>
-      <c r="J13" s="14">
-        <v>0</v>
-      </c>
-      <c r="K13" s="14">
-        <v>0</v>
-      </c>
-      <c r="L13" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12">
-      <c r="B14" s="15">
-        <f>SUM(C14:K14)</f>
-        <v>96</v>
-      </c>
-      <c r="C14" s="14">
-        <v>20</v>
-      </c>
-      <c r="D14" s="14">
-        <v>10</v>
-      </c>
-      <c r="E14" s="14">
-        <v>13</v>
-      </c>
-      <c r="F14" s="14">
-        <v>14</v>
-      </c>
-      <c r="G14" s="14">
-        <v>15</v>
-      </c>
-      <c r="H14" s="14">
-        <v>5</v>
-      </c>
-      <c r="I14" s="14">
-        <v>2</v>
-      </c>
-      <c r="J14" s="14">
-        <v>3</v>
-      </c>
-      <c r="K14" s="14">
-        <v>14</v>
-      </c>
-      <c r="L14" s="14">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
@@ -2265,8 +1177,8 @@
   <sheetPr/>
   <dimension ref="B3:N78"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="R70" sqref="R70"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="C71" sqref="C70:C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.73076923076923" defaultRowHeight="35" customHeight="1"/>
@@ -2364,7 +1276,7 @@
       </c>
       <c r="C10" s="3"/>
       <c r="F10" s="1" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="J10" s="6"/>
     </row>
@@ -2447,7 +1359,7 @@
       </c>
       <c r="C17" s="3"/>
       <c r="I17" s="1" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="J17" s="6"/>
     </row>
@@ -2524,7 +1436,7 @@
       <c r="B23" s="2"/>
       <c r="C23" s="3"/>
       <c r="J23" s="1" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="2:10">
@@ -2614,7 +1526,7 @@
       <c r="C31" s="3"/>
       <c r="J31" s="6"/>
       <c r="M31" s="1" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="2:13">
@@ -2688,14 +1600,14 @@
     </row>
     <row r="37" customHeight="1" spans="8:8">
       <c r="H37" s="10" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="2:13">
       <c r="B38" s="2"/>
       <c r="C38" s="3"/>
       <c r="M38" s="1" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="2:13">
@@ -2704,11 +1616,11 @@
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="1" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="J39" s="6"/>
       <c r="M39" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="2:13">
@@ -2717,7 +1629,7 @@
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="F40" s="6"/>
       <c r="G40" s="7"/>
@@ -2786,14 +1698,14 @@
     </row>
     <row r="43" customHeight="1" spans="8:8">
       <c r="H43" s="10" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="2:13">
       <c r="B44" s="2"/>
       <c r="C44" s="3"/>
       <c r="M44" s="1" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="2:13">
@@ -2802,11 +1714,11 @@
       </c>
       <c r="C45" s="3"/>
       <c r="G45" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="J45" s="6"/>
       <c r="M45" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="2:13">
@@ -2881,14 +1793,14 @@
     </row>
     <row r="49" customHeight="1" spans="8:8">
       <c r="H49" s="10" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="2:13">
       <c r="B50" s="2"/>
       <c r="C50" s="3"/>
       <c r="M50" s="1" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="2:13">
@@ -2897,14 +1809,14 @@
       </c>
       <c r="C51" s="3"/>
       <c r="F51" s="1" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="J51" s="6"/>
       <c r="M51" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="2:13">
@@ -2979,14 +1891,14 @@
     </row>
     <row r="55" customHeight="1" spans="8:8">
       <c r="H55" s="10" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="2:13">
       <c r="B56" s="2"/>
       <c r="C56" s="3"/>
       <c r="M56" s="1" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="2:13">
@@ -2995,14 +1907,14 @@
       </c>
       <c r="C57" s="3"/>
       <c r="F57" s="1" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="J57" s="6"/>
       <c r="M57" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="2:13">
@@ -3077,20 +1989,20 @@
     </row>
     <row r="61" customHeight="1" spans="8:10">
       <c r="H61" s="10" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="2:13">
       <c r="B62" s="2"/>
       <c r="C62" s="3"/>
       <c r="J62" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="2:13">
@@ -3100,7 +2012,7 @@
       <c r="C63" s="3"/>
       <c r="J63" s="6"/>
       <c r="M63" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="2:13">
@@ -3175,20 +2087,20 @@
     </row>
     <row r="67" customHeight="1" spans="8:10">
       <c r="H67" s="10" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" customHeight="1" spans="2:13">
       <c r="B68" s="2"/>
       <c r="C68" s="3"/>
       <c r="J68" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" customHeight="1" spans="2:12">
@@ -3199,7 +2111,7 @@
       <c r="J69" s="6"/>
       <c r="K69" s="13"/>
       <c r="L69" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70" customHeight="1" spans="2:13">
@@ -3274,20 +2186,20 @@
     </row>
     <row r="73" customHeight="1" spans="8:10">
       <c r="H73" s="10" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74" customHeight="1" spans="2:11">
       <c r="B74" s="2"/>
       <c r="C74" s="3"/>
       <c r="J74" s="1" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75" customHeight="1" spans="2:12">
